--- a/Wind Data/45 degree/Clarence River 45 wind and CPUE_modelled_sydney_winds.xlsx
+++ b/Wind Data/45 degree/Clarence River 45 wind and CPUE_modelled_sydney_winds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNLOC\Wind and Fisheries\Wind Data\45 degree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59ED1931-EE33-4081-873C-4EC2D3956548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F44A7-D308-4148-B5EC-A44E56B8D1FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{3A8E6F84-619C-48EF-AA8B-B7FAA87B2C0E}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E6F84-619C-48EF-AA8B-B7FAA87B2C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Year.Month.Day.Hour.Minutes.in.YYYY.1</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>luder</t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>mullet</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -325,34 +340,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5328.9769127742702</c:v>
+                  <c:v>4983.8187380468908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1606.11515829625</c:v>
+                  <c:v>9322.4110409077894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3270.9441180948547</c:v>
+                  <c:v>10459.065528660965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5860.7301069437381</c:v>
+                  <c:v>9866.7593015522762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7217.0909977692208</c:v>
+                  <c:v>9954.2004246500728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,34 +863,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-31688.736011051689</c:v>
+                  <c:v>303.63148500215766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20924.736969494043</c:v>
+                  <c:v>2978.3271571826663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-37167.967342356933</c:v>
+                  <c:v>-6719.890757071691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-38431.943278156657</c:v>
+                  <c:v>-3420.2025468097836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-39699.455271529965</c:v>
+                  <c:v>-7853.1853713025193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38912.899522807827</c:v>
+                  <c:v>-5381.0154888472644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-535.0699659232223</c:v>
+                  <c:v>-436.67561864964046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7148.8121693385347</c:v>
+                  <c:v>-6115.3654365009124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3020.9950168251194</c:v>
+                  <c:v>-1168.8869759119166</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5337.2175288346452</c:v>
+                  <c:v>-4607.2586103104832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,34 +1386,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3270.9441180948547</c:v>
+                  <c:v>10459.065528660965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5860.7301069437381</c:v>
+                  <c:v>9866.7593015522762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7217.0909977692208</c:v>
+                  <c:v>9954.2004246500728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9531.463772215051</c:v>
+                  <c:v>9519.2875632743599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7278.7133479885197</c:v>
+                  <c:v>9142.489753227961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,34 +1909,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-25765.288911948272</c:v>
+                  <c:v>-11131.945401655161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-35836.769818354558</c:v>
+                  <c:v>-17593.173202014164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-34735.287690640376</c:v>
+                  <c:v>-17091.284643806848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31471.846859786212</c:v>
+                  <c:v>-14063.847523111581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-35123.116682272434</c:v>
+                  <c:v>-16693.869062219208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-31895.519658081394</c:v>
+                  <c:v>-14467.526111668431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-22468.769630675248</c:v>
+                  <c:v>-10093.346926555503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24970.276160826914</c:v>
+                  <c:v>-10881.07736533432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-38635.123777814559</c:v>
+                  <c:v>-19328.777883932431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-26239.759618993543</c:v>
+                  <c:v>-9707.7669324449889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,34 +2432,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5333.7603701230146</c:v>
+                  <c:v>16457.045402262571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3409.773420202328</c:v>
+                  <c:v>6526.7485302542227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1941.2908463399299</c:v>
+                  <c:v>9357.7692667354222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5328.9769127742702</c:v>
+                  <c:v>4983.8187380468908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1606.11515829625</c:v>
+                  <c:v>9322.4110409077894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,34 +2963,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1606.11515829625</c:v>
+                  <c:v>9322.4110409077894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3270.9441180948547</c:v>
+                  <c:v>10459.065528660965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5860.7301069437381</c:v>
+                  <c:v>9866.7593015522762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7217.0909977692208</c:v>
+                  <c:v>9954.2004246500728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9531.463772215051</c:v>
+                  <c:v>9519.2875632743599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,34 +3486,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3270.9441180948547</c:v>
+                  <c:v>10459.065528660965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5860.7301069437381</c:v>
+                  <c:v>9866.7593015522762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7217.0909977692208</c:v>
+                  <c:v>9954.2004246500728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9531.463772215051</c:v>
+                  <c:v>9519.2875632743599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7278.7133479885197</c:v>
+                  <c:v>9142.489753227961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3994,34 +4009,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-31895.519658081394</c:v>
+                  <c:v>-14467.526111668431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22468.769630675248</c:v>
+                  <c:v>-10093.346926555503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24970.276160826914</c:v>
+                  <c:v>-10881.07736533432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-38635.123777814559</c:v>
+                  <c:v>-19328.777883932431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26239.759618993543</c:v>
+                  <c:v>-9707.7669324449889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-33500.435919473966</c:v>
+                  <c:v>-14593.073996261999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-27571.176575409474</c:v>
+                  <c:v>-19655.096317213371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7902.9048485868598</c:v>
+                  <c:v>-9395.0418573466141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11658.35627302476</c:v>
+                  <c:v>-18813.067817344971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12062.496919986992</c:v>
+                  <c:v>-12799.735506017925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,34 +4532,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2503.4221258035882</c:v>
+                  <c:v>10124.576198654726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3306.3564968155738</c:v>
+                  <c:v>8745.1495399595296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-195.22850453919045</c:v>
+                  <c:v>8650.9882733185004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2892.2147759953996</c:v>
+                  <c:v>9817.1967486983103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2455.0811789069508</c:v>
+                  <c:v>9906.0118913918159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3270.9441180948547</c:v>
+                  <c:v>10459.065528660965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5860.7301069437381</c:v>
+                  <c:v>9866.7593015522762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7217.0909977692208</c:v>
+                  <c:v>9954.2004246500728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9531.463772215051</c:v>
+                  <c:v>9519.2875632743599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7278.7133479885197</c:v>
+                  <c:v>9142.489753227961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,34 +5055,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-25026.21142087131</c:v>
+                  <c:v>-13471.005417452201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25390.580724646537</c:v>
+                  <c:v>-12857.849798790081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20863.791201164739</c:v>
+                  <c:v>-9752.9750086818804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11988.045041302639</c:v>
+                  <c:v>-6652.453958991483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17064.231893446271</c:v>
+                  <c:v>-9536.2439978597304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-26118.866298445049</c:v>
+                  <c:v>-14171.52443323899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21429.73617437356</c:v>
+                  <c:v>-9833.6958928954791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24857.860541750983</c:v>
+                  <c:v>-11207.242211346231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14259.479821531149</c:v>
+                  <c:v>-12558.183863607261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8927.5062661033517</c:v>
+                  <c:v>-9581.3775963131593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,34 +5578,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-21164.824011541499</c:v>
+                  <c:v>-10970.27354806018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25026.21142087131</c:v>
+                  <c:v>-13471.005417452201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25390.580724646537</c:v>
+                  <c:v>-12857.849798790081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-20863.791201164739</c:v>
+                  <c:v>-9752.9750086818804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11988.045041302639</c:v>
+                  <c:v>-6652.453958991483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17064.231893446271</c:v>
+                  <c:v>-9536.2439978597304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26118.866298445049</c:v>
+                  <c:v>-14171.52443323899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21429.73617437356</c:v>
+                  <c:v>-9833.6958928954791</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-24857.860541750983</c:v>
+                  <c:v>-11207.242211346231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-14259.479821531149</c:v>
+                  <c:v>-12558.183863607261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,34 +6109,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-27227.370144738827</c:v>
+                  <c:v>-12328.470606495617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23122.311598206019</c:v>
+                  <c:v>-9309.127388694651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16672.002780943629</c:v>
+                  <c:v>-8160.5607538238528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25250.915849102719</c:v>
+                  <c:v>-13282.148415806891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31663.866385723719</c:v>
+                  <c:v>-15502.611049725971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29344.735302718411</c:v>
+                  <c:v>-12809.739296607559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-32272.518157113795</c:v>
+                  <c:v>-14456.14661103224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13542.13018249744</c:v>
+                  <c:v>-12687.703645631102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11983.833550379561</c:v>
+                  <c:v>-11630.929747365719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8577.4312298090099</c:v>
+                  <c:v>-13704.689954861518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6617,34 +6632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-31363.495089072203</c:v>
+                  <c:v>840.03575891410765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-42053.411538167908</c:v>
+                  <c:v>-7021.6966747508068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-30855.129817085519</c:v>
+                  <c:v>319.13329224348763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-26894.256463933099</c:v>
+                  <c:v>497.52806951224784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31181.952412065781</c:v>
+                  <c:v>-1783.6462504783717</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38027.232463983586</c:v>
+                  <c:v>-5977.3692603930494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36380.763557364822</c:v>
+                  <c:v>-1669.0956155050335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-42585.257757693464</c:v>
+                  <c:v>-9785.8183357359194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19264.49034613018</c:v>
+                  <c:v>-4770.6096438563854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1437.9082205774503</c:v>
+                  <c:v>1568.048769593559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7140,34 +7155,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-42053.411538167908</c:v>
+                  <c:v>-7021.6966747508068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-30855.129817085519</c:v>
+                  <c:v>319.13329224348763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-26894.256463933099</c:v>
+                  <c:v>497.52806951224784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31181.952412065781</c:v>
+                  <c:v>-1783.6462504783717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38027.232463983586</c:v>
+                  <c:v>-5977.3692603930494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-36380.763557364822</c:v>
+                  <c:v>-1669.0956155050335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-42585.257757693464</c:v>
+                  <c:v>-9785.8183357359194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-19264.49034613018</c:v>
+                  <c:v>-4770.6096438563854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1437.9082205774503</c:v>
+                  <c:v>1568.048769593559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2489.567257203486</c:v>
+                  <c:v>-7926.4210609014171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7663,34 +7678,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-44224.388229923337</c:v>
+                  <c:v>-9279.6561126068191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-34872.841050737494</c:v>
+                  <c:v>-3459.2269830956056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31688.736011051689</c:v>
+                  <c:v>303.63148500215766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-20924.736969494043</c:v>
+                  <c:v>2978.3271571826663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37167.967342356933</c:v>
+                  <c:v>-6719.890757071691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38431.943278156657</c:v>
+                  <c:v>-3420.2025468097836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39699.455271529965</c:v>
+                  <c:v>-7853.1853713025193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-38912.899522807827</c:v>
+                  <c:v>-5381.0154888472644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-535.0699659232223</c:v>
+                  <c:v>-436.67561864964046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7148.8121693385347</c:v>
+                  <c:v>-6115.3654365009124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8186,34 +8201,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-34872.841050737494</c:v>
+                  <c:v>-3459.2269830956056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-31688.736011051689</c:v>
+                  <c:v>303.63148500215766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20924.736969494043</c:v>
+                  <c:v>2978.3271571826663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-37167.967342356933</c:v>
+                  <c:v>-6719.890757071691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38431.943278156657</c:v>
+                  <c:v>-3420.2025468097836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-39699.455271529965</c:v>
+                  <c:v>-7853.1853713025193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38912.899522807827</c:v>
+                  <c:v>-5381.0154888472644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-535.0699659232223</c:v>
+                  <c:v>-436.67561864964046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7148.8121693385347</c:v>
+                  <c:v>-6115.3654365009124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3020.9950168251194</c:v>
+                  <c:v>-1168.8869759119166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18345,12 +18360,12 @@
   <dimension ref="A1:AE357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C304"/>
+      <selection activeCell="P110" sqref="P110:P119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18424,7 +18439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -18432,7 +18447,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>-987.39304156428102</v>
+        <v>694.10368384326102</v>
       </c>
       <c r="D2">
         <v>248</v>
@@ -18501,7 +18516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1989</v>
       </c>
@@ -18509,7 +18524,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-4836.7640461786896</v>
+        <v>-2341.2763676202499</v>
       </c>
       <c r="D3">
         <v>240</v>
@@ -18590,7 +18605,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1989</v>
       </c>
@@ -18598,7 +18613,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-5133.07942272731</v>
+        <v>-2867.9068467983102</v>
       </c>
       <c r="D4">
         <v>248</v>
@@ -18679,7 +18694,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -18687,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-9499.0404266627593</v>
+        <v>-4379.0675279604602</v>
       </c>
       <c r="D5">
         <v>248</v>
@@ -18768,7 +18783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -18776,7 +18791,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>-5309.0119748152301</v>
+        <v>-2237.7983431194002</v>
       </c>
       <c r="D6">
         <v>224</v>
@@ -18857,7 +18872,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -18865,7 +18880,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-4577.7789499024202</v>
+        <v>-1159.1069600123401</v>
       </c>
       <c r="D7">
         <v>248</v>
@@ -18946,7 +18961,7 @@
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1990</v>
       </c>
@@ -18954,7 +18969,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-1313.3016576295299</v>
+        <v>510.44011999531602</v>
       </c>
       <c r="D8">
         <v>240</v>
@@ -19035,7 +19050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1990</v>
       </c>
@@ -19043,7 +19058,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>128.097776293507</v>
+        <v>1848.3990877081101</v>
       </c>
       <c r="D9">
         <v>248</v>
@@ -19124,7 +19139,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -19132,7 +19147,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2656.9757161825901</v>
+        <v>3505.2691154643999</v>
       </c>
       <c r="D10">
         <v>240</v>
@@ -19213,7 +19228,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -19221,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1195.1083502149399</v>
+        <v>2364.4143779634601</v>
       </c>
       <c r="D11">
         <v>248</v>
@@ -19302,7 +19317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -19310,7 +19325,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5333.9792982298704</v>
+        <v>5892.8999683434804</v>
       </c>
       <c r="D12">
         <v>248</v>
@@ -19391,7 +19406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -19399,7 +19414,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>-1320.37209851495</v>
+        <v>264.994649383546</v>
       </c>
       <c r="D13">
         <v>240</v>
@@ -19453,7 +19468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -19461,7 +19476,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>-1762.1398551782099</v>
+        <v>604.44825526850502</v>
       </c>
       <c r="D14">
         <v>248</v>
@@ -19511,7 +19526,7 @@
         <v>3.0649223708549442</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -19519,7 +19534,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>-5632.8377728754003</v>
+        <v>-2590.84549662565</v>
       </c>
       <c r="D15">
         <v>240</v>
@@ -19552,7 +19567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -19560,7 +19575,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>-10229.5953178126</v>
+        <v>-5804.3913015558001</v>
       </c>
       <c r="D16">
         <v>248</v>
@@ -19591,10 +19606,10 @@
       </c>
       <c r="P16">
         <f>2*SUM(C8:C11)</f>
-        <v>5333.7603701230146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16457.045402262571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1991</v>
       </c>
@@ -19602,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>-8618.6107745734007</v>
+        <v>-5314.7225180737596</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -19633,10 +19648,10 @@
       </c>
       <c r="P17">
         <f>SUM(C20:C23)</f>
-        <v>-3409.773420202328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6526.7485302542227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1991</v>
       </c>
@@ -19644,7 +19659,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>-9593.5860979149493</v>
+        <v>-4487.6621410274602</v>
       </c>
       <c r="D18">
         <v>224</v>
@@ -19675,10 +19690,10 @@
       </c>
       <c r="P18">
         <f>SUM(C32:C35)</f>
-        <v>1941.2908463399299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9357.7692667354222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1991</v>
       </c>
@@ -19686,7 +19701,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>-9087.2621766427801</v>
+        <v>-4065.5023517183399</v>
       </c>
       <c r="D19">
         <v>248</v>
@@ -19717,10 +19732,10 @@
       </c>
       <c r="P19">
         <f>SUM(C44:C47)</f>
-        <v>-5328.9769127742702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4983.8187380468908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1991</v>
       </c>
@@ -19728,7 +19743,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>-3643.5124940918699</v>
+        <v>53.762062120861103</v>
       </c>
       <c r="D20">
         <v>240</v>
@@ -19759,10 +19774,10 @@
       </c>
       <c r="P20">
         <f>SUM(C56:C59)</f>
-        <v>1606.11515829625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9322.4110409077894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1991</v>
       </c>
@@ -19770,7 +19785,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>-3778.6654368856098</v>
+        <v>-424.68061877887902</v>
       </c>
       <c r="D21">
         <v>248</v>
@@ -19801,10 +19816,13 @@
       </c>
       <c r="P21">
         <f>SUM(C68:C71)</f>
-        <v>2503.4221258035882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10124.576198654726</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -19812,7 +19830,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>634.792661379131</v>
+        <v>2095.8301658233499</v>
       </c>
       <c r="D22">
         <v>240</v>
@@ -19843,10 +19861,10 @@
       </c>
       <c r="P22">
         <f>SUM(C80:C83)</f>
-        <v>3306.3564968155738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8745.1495399595296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -19854,7 +19872,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>3377.6118493960198</v>
+        <v>4801.8369210888904</v>
       </c>
       <c r="D23">
         <v>248</v>
@@ -19885,10 +19903,10 @@
       </c>
       <c r="P23">
         <f>SUM(C92:C95)</f>
-        <v>-195.22850453919045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8650.9882733185004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1991</v>
       </c>
@@ -19896,7 +19914,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>3298.1910557440601</v>
+        <v>4110.0999653635999</v>
       </c>
       <c r="D24">
         <v>248</v>
@@ -19927,10 +19945,10 @@
       </c>
       <c r="P24">
         <f>SUM(C104:C107)</f>
-        <v>2892.2147759953996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9817.1967486983103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -19938,7 +19956,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>884.45180983170303</v>
+        <v>2291.6363411123798</v>
       </c>
       <c r="D25">
         <v>240</v>
@@ -19969,10 +19987,10 @@
       </c>
       <c r="P25">
         <f>SUM(C116:C119)</f>
-        <v>2455.0811789069508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9906.0118913918159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -19980,7 +19998,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>-7622.4343915672498</v>
+        <v>-2653.4665618644299</v>
       </c>
       <c r="D26">
         <v>248</v>
@@ -20011,10 +20029,10 @@
       </c>
       <c r="P26">
         <f>SUM(C128:C131)</f>
-        <v>3270.9441180948547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10459.065528660965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -20022,7 +20040,7 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>-5948.02928753163</v>
+        <v>-3467.5445338822401</v>
       </c>
       <c r="D27">
         <v>240</v>
@@ -20053,10 +20071,10 @@
       </c>
       <c r="P27">
         <f>SUM(C140:C143)</f>
-        <v>5860.7301069437381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9866.7593015522762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1991</v>
       </c>
@@ -20064,7 +20082,7 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>-7480.2969868692098</v>
+        <v>-4351.8804031655</v>
       </c>
       <c r="D28">
         <v>248</v>
@@ -20095,10 +20113,10 @@
       </c>
       <c r="P28">
         <f>SUM(C152:C155)</f>
-        <v>7217.0909977692208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9954.2004246500728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1992</v>
       </c>
@@ -20106,7 +20124,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>-9887.6497920775892</v>
+        <v>-5034.0719400902899</v>
       </c>
       <c r="D29">
         <v>248</v>
@@ -20137,10 +20155,10 @@
       </c>
       <c r="P29">
         <f>SUM(C164:C167)</f>
-        <v>9531.463772215051</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9519.2875632743599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1992</v>
       </c>
@@ -20148,7 +20166,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>-3796.8772325947002</v>
+        <v>-1584.3212048043899</v>
       </c>
       <c r="D30">
         <v>232</v>
@@ -20179,10 +20197,10 @@
       </c>
       <c r="P30">
         <f>SUM(C176:C179)</f>
-        <v>7278.7133479885197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9142.489753227961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -20190,7 +20208,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>-4469.8609489028804</v>
+        <v>-1979.2177782635899</v>
       </c>
       <c r="D31">
         <v>248</v>
@@ -20221,10 +20239,10 @@
       </c>
       <c r="P31">
         <f>SUM(C188:C191)</f>
-        <v>3394.5814500355523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5458.5200555117262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1992</v>
       </c>
@@ -20232,7 +20250,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-3540.7974052715199</v>
+        <v>-895.86827034129703</v>
       </c>
       <c r="D32">
         <v>240</v>
@@ -20263,10 +20281,10 @@
       </c>
       <c r="P32">
         <f>SUM(C200:C203)</f>
-        <v>10792.70362278504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10506.185274610671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -20274,7 +20292,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>-1976.52625356318</v>
+        <v>1532.3904050333499</v>
       </c>
       <c r="D33">
         <v>248</v>
@@ -20301,7 +20319,7 @@
         <v>61.685603112840468</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -20309,7 +20327,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>3763.8660274604599</v>
+        <v>4459.6341559665898</v>
       </c>
       <c r="D34">
         <v>240</v>
@@ -20336,7 +20354,7 @@
         <v>77.570629370629362</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1992</v>
       </c>
@@ -20344,7 +20362,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>3694.7484777141699</v>
+        <v>4261.6129760767799</v>
       </c>
       <c r="D35">
         <v>248</v>
@@ -20374,7 +20392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -20382,7 +20400,7 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>1647.7654878527401</v>
+        <v>3553.4570111951898</v>
       </c>
       <c r="D36">
         <v>248</v>
@@ -20413,10 +20431,10 @@
       </c>
       <c r="P36">
         <f>SUM(C4:C6)</f>
-        <v>-19941.131824205302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9484.7727178781715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1992</v>
       </c>
@@ -20424,7 +20442,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>890.06209066726603</v>
+        <v>2968.3292578475998</v>
       </c>
       <c r="D37">
         <v>240</v>
@@ -20455,10 +20473,10 @@
       </c>
       <c r="P37">
         <f>SUM(C16:C18)</f>
-        <v>-28441.792190300948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-15606.77596065702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1992</v>
       </c>
@@ -20466,7 +20484,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>-3049.69827677386</v>
+        <v>-259.34477157070103</v>
       </c>
       <c r="D38">
         <v>248</v>
@@ -20497,10 +20515,13 @@
       </c>
       <c r="P38">
         <f>SUM(C28:C30)</f>
-        <v>-21164.824011541499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10970.27354806018</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1992</v>
       </c>
@@ -20508,7 +20529,7 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>-3395.9371621410401</v>
+        <v>-333.49733408868002</v>
       </c>
       <c r="D39">
         <v>240</v>
@@ -20539,10 +20560,13 @@
       </c>
       <c r="P39">
         <f>SUM(C40:C42)</f>
-        <v>-25026.21142087131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-13471.005417452201</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1992</v>
       </c>
@@ -20550,7 +20574,7 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>-9051.18146912474</v>
+        <v>-3557.5056881989999</v>
       </c>
       <c r="D40">
         <v>248</v>
@@ -20581,10 +20605,10 @@
       </c>
       <c r="P40">
         <f>SUM(C52:C54)</f>
-        <v>-25390.580724646537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12857.849798790081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1993</v>
       </c>
@@ -20592,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>-9977.9296169737609</v>
+        <v>-5646.8451757436396</v>
       </c>
       <c r="D41">
         <v>248</v>
@@ -20623,10 +20647,10 @@
       </c>
       <c r="P41">
         <f>SUM(C64:C66)</f>
-        <v>-20863.791201164739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9752.9750086818804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1993</v>
       </c>
@@ -20634,7 +20658,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>-5997.1003347728101</v>
+        <v>-4266.6545535095602</v>
       </c>
       <c r="D42">
         <v>224</v>
@@ -20665,10 +20689,10 @@
       </c>
       <c r="P42">
         <f>SUM(C76:C78)</f>
-        <v>-11988.045041302639</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-6652.453958991483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1993</v>
       </c>
@@ -20676,7 +20700,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>-3487.1263817966901</v>
+        <v>-552.06138234366995</v>
       </c>
       <c r="D43">
         <v>248</v>
@@ -20707,10 +20731,10 @@
       </c>
       <c r="P43">
         <f>SUM(C88:C90)</f>
-        <v>-17064.231893446271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9536.2439978597304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1993</v>
       </c>
@@ -20718,7 +20742,7 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>-4398.2219929359699</v>
+        <v>-902.74129396212095</v>
       </c>
       <c r="D44">
         <v>240</v>
@@ -20749,10 +20773,10 @@
       </c>
       <c r="P44">
         <f>SUM(C100:C102)</f>
-        <v>-26118.866298445049</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14171.52443323899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -20760,7 +20784,7 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>-2340.79470368275</v>
+        <v>885.93888894428005</v>
       </c>
       <c r="D45">
         <v>248</v>
@@ -20791,10 +20815,10 @@
       </c>
       <c r="P45">
         <f>SUM(C112:C114)</f>
-        <v>-21429.73617437356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9833.6958928954791</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -20802,7 +20826,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>4101.9187928952397</v>
+        <v>4689.3478242676301</v>
       </c>
       <c r="D46">
         <v>240</v>
@@ -20833,10 +20857,10 @@
       </c>
       <c r="P46">
         <f>SUM(C124:C126)</f>
-        <v>-24857.860541750983</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11207.242211346231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -20844,7 +20868,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>-2691.87900905079</v>
+        <v>311.27331879710198</v>
       </c>
       <c r="D47">
         <v>248</v>
@@ -20875,10 +20899,10 @@
       </c>
       <c r="P47">
         <f>SUM(C136:C138)</f>
-        <v>-14259.479821531149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12558.183863607261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1993</v>
       </c>
@@ -20886,7 +20910,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>-451.07493447064201</v>
+        <v>2214.5813462050601</v>
       </c>
       <c r="D48">
         <v>248</v>
@@ -20917,10 +20941,10 @@
       </c>
       <c r="P48">
         <f>SUM(C148:C150)</f>
-        <v>-8927.5062661033517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9581.3775963131593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -20928,7 +20952,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>-1042.9309067981901</v>
+        <v>1017.9020666523001</v>
       </c>
       <c r="D49">
         <v>240</v>
@@ -20959,10 +20983,10 @@
       </c>
       <c r="P49">
         <f>SUM(C160:C162)</f>
-        <v>-6656.28201770538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11711.191489935569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1993</v>
       </c>
@@ -20970,7 +20994,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>-4588.4150307933296</v>
+        <v>-1203.24767716885</v>
       </c>
       <c r="D50">
         <v>248</v>
@@ -21001,10 +21025,10 @@
       </c>
       <c r="P50">
         <f>SUM(C172:C174)</f>
-        <v>-11219.7013272975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11537.98961872162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1993</v>
       </c>
@@ -21012,7 +21036,7 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>-5144.1209268325601</v>
+        <v>-2632.7715862602799</v>
       </c>
       <c r="D51">
         <v>240</v>
@@ -21043,10 +21067,10 @@
       </c>
       <c r="P51">
         <f>SUM(C184:C186)</f>
-        <v>-10164.274166292002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11578.541049547439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1993</v>
       </c>
@@ -21054,7 +21078,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>-8206.7131847110795</v>
+        <v>-3194.3778884850699</v>
       </c>
       <c r="D52">
         <v>248</v>
@@ -21085,10 +21109,10 @@
       </c>
       <c r="P52">
         <f>SUM(C196:C198)</f>
-        <v>-10281.30774057165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-13004.170182882841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1994</v>
       </c>
@@ -21096,7 +21120,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>-8510.7534983672103</v>
+        <v>-5063.7022964424596</v>
       </c>
       <c r="D53">
         <v>248</v>
@@ -21123,7 +21147,7 @@
         <v>42.303090507726267</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1994</v>
       </c>
@@ -21131,7 +21155,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>-8673.1140415682494</v>
+        <v>-4599.7696138625497</v>
       </c>
       <c r="D54">
         <v>224</v>
@@ -21158,7 +21182,7 @@
         <v>39.617802197802206</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1994</v>
       </c>
@@ -21166,7 +21190,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>-1836.7894200922899</v>
+        <v>529.37919229446402</v>
       </c>
       <c r="D55">
         <v>248</v>
@@ -21196,7 +21220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1994</v>
       </c>
@@ -21204,7 +21228,7 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-3631.6631034014499</v>
+        <v>-473.555746198441</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -21235,10 +21259,10 @@
       </c>
       <c r="P56">
         <f>SUM(C4:C7)</f>
-        <v>-24518.910774107724</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10643.879677890513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1994</v>
       </c>
@@ -21246,7 +21270,7 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>1136.92151064265</v>
+        <v>2533.9503936971601</v>
       </c>
       <c r="D57">
         <v>248</v>
@@ -21277,10 +21301,10 @@
       </c>
       <c r="P57">
         <f>SUM(C16:C19)</f>
-        <v>-37529.054366943732</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-19672.278312375362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1994</v>
       </c>
@@ -21288,7 +21312,7 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1587.1210072752399</v>
+        <v>3538.64181602076</v>
       </c>
       <c r="D58">
         <v>240</v>
@@ -21319,10 +21343,10 @@
       </c>
       <c r="P58">
         <f>SUM(C28:C31)</f>
-        <v>-25634.684960444378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12949.49132632377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1994</v>
       </c>
@@ -21330,7 +21354,7 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>2513.73574377981</v>
+        <v>3723.3745773883102</v>
       </c>
       <c r="D59">
         <v>248</v>
@@ -21361,10 +21385,10 @@
       </c>
       <c r="P59">
         <f>SUM(C40:C43)</f>
-        <v>-28513.337802668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14023.066799795872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1994</v>
       </c>
@@ -21372,7 +21396,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>1511.12922216374</v>
+        <v>2441.54573479697</v>
       </c>
       <c r="D60">
         <v>248</v>
@@ -21403,10 +21427,13 @@
       </c>
       <c r="P60">
         <f>SUM(C52:C55)</f>
-        <v>-27227.370144738827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12328.470606495617</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1994</v>
       </c>
@@ -21414,7 +21441,7 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>349.21247243831402</v>
+        <v>2708.6032420905099</v>
       </c>
       <c r="D61">
         <v>240</v>
@@ -21445,10 +21472,10 @@
       </c>
       <c r="P61">
         <f>SUM(C64:C67)</f>
-        <v>-23122.311598206019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9309.127388694651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1994</v>
       </c>
@@ -21456,7 +21483,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>-5301.1184685619201</v>
+        <v>-1951.03853983571</v>
       </c>
       <c r="D62">
         <v>248</v>
@@ -21487,10 +21514,10 @@
       </c>
       <c r="P62">
         <f>SUM(C76:C79)</f>
-        <v>-16672.002780943629</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-8160.5607538238528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1994</v>
       </c>
@@ -21498,7 +21525,7 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>-5730.6099883547304</v>
+        <v>-2763.5125631508399</v>
       </c>
       <c r="D63">
         <v>240</v>
@@ -21529,10 +21556,10 @@
       </c>
       <c r="P63">
         <f>SUM(C88:C91)</f>
-        <v>-25250.915849102719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-13282.148415806891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1994</v>
       </c>
@@ -21540,7 +21567,7 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>-8286.9124866913899</v>
+        <v>-4083.1431798937801</v>
       </c>
       <c r="D64">
         <v>248</v>
@@ -21571,10 +21598,10 @@
       </c>
       <c r="P64">
         <f>SUM(C100:C103)</f>
-        <v>-31663.866385723719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-15502.611049725971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1995</v>
       </c>
@@ -21582,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>-6409.04922415694</v>
+        <v>-3094.0310053292701</v>
       </c>
       <c r="D65">
         <v>248</v>
@@ -21613,10 +21640,10 @@
       </c>
       <c r="P65">
         <f>SUM(C112:C115)</f>
-        <v>-29344.735302718411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12809.739296607559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1995</v>
       </c>
@@ -21624,7 +21651,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>-6167.8294903164096</v>
+        <v>-2575.8008234588301</v>
       </c>
       <c r="D66">
         <v>224</v>
@@ -21655,10 +21682,10 @@
       </c>
       <c r="P66">
         <f>SUM(C124:C127)</f>
-        <v>-32272.518157113795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14456.14661103224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1995</v>
       </c>
@@ -21666,7 +21693,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>-2258.5203970412799</v>
+        <v>443.84761998723002</v>
       </c>
       <c r="D67">
         <v>248</v>
@@ -21697,10 +21724,10 @@
       </c>
       <c r="P67">
         <f>SUM(C136:C139)</f>
-        <v>-13542.13018249744</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12687.703645631102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1995</v>
       </c>
@@ -21708,7 +21735,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>-2600.7520783956402</v>
+        <v>636.90474380022704</v>
       </c>
       <c r="D68">
         <v>240</v>
@@ -21739,10 +21766,10 @@
       </c>
       <c r="P68">
         <f>SUM(C148:C151)</f>
-        <v>-11983.833550379561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11630.929747365719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1995</v>
       </c>
@@ -21750,7 +21777,7 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>-793.898901334122</v>
+        <v>1155.0581991832</v>
       </c>
       <c r="D69">
         <v>248</v>
@@ -21781,10 +21808,10 @@
       </c>
       <c r="P69">
         <f>SUM(C160:C163)</f>
-        <v>-8577.4312298090099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-13704.689954861518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1995</v>
       </c>
@@ -21792,7 +21819,7 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>2319.4837793850502</v>
+        <v>3677.3252866654698</v>
       </c>
       <c r="D70">
         <v>240</v>
@@ -21823,10 +21850,10 @@
       </c>
       <c r="P70">
         <f>SUM(C172:C175)</f>
-        <v>-15011.26789697049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14113.943371599071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1995</v>
       </c>
@@ -21834,7 +21861,7 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <v>3578.5893261483002</v>
+        <v>4655.2879690058298</v>
       </c>
       <c r="D71">
         <v>248</v>
@@ -21865,10 +21892,10 @@
       </c>
       <c r="P71">
         <f>SUM(C184:C187)</f>
-        <v>-10319.849238999455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12176.499363891848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1995</v>
       </c>
@@ -21876,7 +21903,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>-760.76241458661195</v>
+        <v>1261.8967377454901</v>
       </c>
       <c r="D72">
         <v>248</v>
@@ -21907,10 +21934,10 @@
       </c>
       <c r="P72">
         <f>SUM(C196:C199)</f>
-        <v>-12726.80599078972</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-15819.612376005241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -21918,7 +21945,7 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>-4067.51141316435</v>
+        <v>649.19999393123101</v>
       </c>
       <c r="D73">
         <v>240</v>
@@ -21945,7 +21972,7 @@
         <v>38.530416666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1995</v>
       </c>
@@ -21953,7 +21980,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>-5390.2402839209299</v>
+        <v>-1325.5116923972</v>
       </c>
       <c r="D74">
         <v>248</v>
@@ -21983,7 +22010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1995</v>
       </c>
@@ -21991,7 +22018,7 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>-5090.4843054516796</v>
+        <v>-2115.3812751668202</v>
       </c>
       <c r="D75">
         <v>240</v>
@@ -22022,10 +22049,10 @@
       </c>
       <c r="P75">
         <f>SUM(C23:C34)</f>
-        <v>-33398.351555945716</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-2770.772903846927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1995</v>
       </c>
@@ -22033,7 +22060,7 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>-4047.7606082170701</v>
+        <v>-3065.1642689644</v>
       </c>
       <c r="D76">
         <v>248</v>
@@ -22064,10 +22091,10 @@
       </c>
       <c r="P76">
         <f>SUM(C35:C46)</f>
-        <v>-31363.495089072203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>840.03575891410765</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1996</v>
       </c>
@@ -22075,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>-6362.5751337069396</v>
+        <v>-4042.9742152050399</v>
       </c>
       <c r="D77">
         <v>248</v>
@@ -22106,10 +22133,10 @@
       </c>
       <c r="P77">
         <f>SUM(C47:C58)</f>
-        <v>-42053.411538167908</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-7021.6966747508068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1996</v>
       </c>
@@ -22117,7 +22144,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>-1577.70929937863</v>
+        <v>455.68452517795703</v>
       </c>
       <c r="D78">
         <v>232</v>
@@ -22148,10 +22175,10 @@
       </c>
       <c r="P78">
         <f>SUM(C59:C70)</f>
-        <v>-30855.129817085519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>319.13329224348763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1996</v>
       </c>
@@ -22159,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>-4683.9577396409904</v>
+        <v>-1508.10679483237</v>
       </c>
       <c r="D79">
         <v>248</v>
@@ -22190,10 +22217,10 @@
       </c>
       <c r="P79">
         <f>SUM(C71:C82)</f>
-        <v>-26894.256463933099</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>497.52806951224784</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1996</v>
       </c>
@@ -22201,7 +22228,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>-446.33329033942601</v>
+        <v>1618.7620141324201</v>
       </c>
       <c r="D80">
         <v>240</v>
@@ -22232,10 +22259,10 @@
       </c>
       <c r="P80">
         <f>SUM(C83:C94)</f>
-        <v>-31181.952412065781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1783.6462504783717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1996</v>
       </c>
@@ -22243,7 +22270,7 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <v>489.13392983582997</v>
+        <v>1454.8773819667299</v>
       </c>
       <c r="D81">
         <v>248</v>
@@ -22274,10 +22301,10 @@
       </c>
       <c r="P81">
         <f>SUM(C95:C106)</f>
-        <v>-38027.232463983586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-5977.3692603930494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1996</v>
       </c>
@@ -22285,7 +22312,7 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <v>1465.3547684893999</v>
+        <v>2458.95769411842</v>
       </c>
       <c r="D82">
         <v>240</v>
@@ -22316,10 +22343,10 @@
       </c>
       <c r="P82">
         <f>SUM(C107:C118)</f>
-        <v>-36380.763557364822</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1669.0956155050335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1996</v>
       </c>
@@ -22327,7 +22354,7 @@
         <v>7</v>
       </c>
       <c r="C83">
-        <v>1798.20108882977</v>
+        <v>3212.5524497419601</v>
       </c>
       <c r="D83">
         <v>248</v>
@@ -22358,10 +22385,10 @@
       </c>
       <c r="P83">
         <f>SUM(C119:C130)</f>
-        <v>-42585.257757693464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9785.8183357359194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1996</v>
       </c>
@@ -22369,7 +22396,7 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>2193.3021971401499</v>
+        <v>3068.1411496639098</v>
       </c>
       <c r="D84">
         <v>248</v>
@@ -22400,10 +22427,10 @@
       </c>
       <c r="P84">
         <f>SUM(C131:C142)</f>
-        <v>-19264.49034613018</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-4770.6096438563854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1996</v>
       </c>
@@ -22411,7 +22438,7 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>798.30957279133202</v>
+        <v>1742.0195539777201</v>
       </c>
       <c r="D85">
         <v>240</v>
@@ -22442,10 +22469,10 @@
       </c>
       <c r="P85">
         <f>SUM(C143:C154)</f>
-        <v>-1437.9082205774503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1568.048769593559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1996</v>
       </c>
@@ -22453,7 +22480,7 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>-5915.9943083074104</v>
+        <v>-1760.7304414535899</v>
       </c>
       <c r="D86">
         <v>248</v>
@@ -22484,10 +22511,10 @@
       </c>
       <c r="P86">
         <f>SUM(C155:C166)</f>
-        <v>-2489.567257203486</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-7926.4210609014171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1996</v>
       </c>
@@ -22495,7 +22522,7 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>-1990.04995907323</v>
+        <v>415.89707397900003</v>
       </c>
       <c r="D87">
         <v>240</v>
@@ -22526,10 +22553,10 @@
       </c>
       <c r="P87">
         <f>SUM(C167:C178)</f>
-        <v>-4386.683328968973</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-2905.0265049397217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1996</v>
       </c>
@@ -22537,7 +22564,7 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>-6692.4187961339003</v>
+        <v>-4136.75323408445</v>
       </c>
       <c r="D88">
         <v>248</v>
@@ -22568,10 +22595,10 @@
       </c>
       <c r="P88">
         <f>SUM(C179:C190)</f>
-        <v>-4703.6779400681171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-7154.9561068895609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1997</v>
       </c>
@@ -22579,7 +22606,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>-5282.2928371605904</v>
+        <v>-3058.6728730423501</v>
       </c>
       <c r="D89">
         <v>248</v>
@@ -22610,10 +22637,10 @@
       </c>
       <c r="P89">
         <f>SUM(C191:C202)</f>
-        <v>-6082.7640151669329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10158.108615054112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1997</v>
       </c>
@@ -22621,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>-5089.5202601517803</v>
+        <v>-2340.8178907329302</v>
       </c>
       <c r="D90">
         <v>224</v>
@@ -22648,7 +22675,7 @@
         <v>62.153374233128829</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1997</v>
       </c>
@@ -22656,7 +22683,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>-8186.6839556564501</v>
+        <v>-3745.9044179471598</v>
       </c>
       <c r="D91">
         <v>248</v>
@@ -22686,7 +22713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1997</v>
       </c>
@@ -22694,7 +22721,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>-5659.8479143162303</v>
+        <v>-1048.67964956486</v>
       </c>
       <c r="D92">
         <v>240</v>
@@ -22725,10 +22752,10 @@
       </c>
       <c r="P92">
         <f>SUM(C17:C28)</f>
-        <v>-47577.350269725779</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11412.293673001526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1997</v>
       </c>
@@ -22736,7 +22763,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>1147.6199283501801</v>
+        <v>2522.4953743383398</v>
       </c>
       <c r="D93">
         <v>248</v>
@@ -22767,10 +22794,10 @@
       </c>
       <c r="P93">
         <f>SUM(C29:C40)</f>
-        <v>-29172.086456754878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3131.5968187615595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1997</v>
       </c>
@@ -22778,7 +22805,7 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>1697.42283162238</v>
+        <v>3346.80665464604</v>
       </c>
       <c r="D94">
         <v>240</v>
@@ -22809,10 +22836,13 @@
       </c>
       <c r="P94">
         <f>SUM(C41:C52)</f>
-        <v>-44224.388229923337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9279.6561126068191</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1997</v>
       </c>
@@ -22820,7 +22850,7 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>2619.57664980448</v>
+        <v>3830.3658938989802</v>
       </c>
       <c r="D95">
         <v>248</v>
@@ -22851,10 +22881,10 @@
       </c>
       <c r="P95">
         <f>SUM(C53:C64)</f>
-        <v>-34872.841050737494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-3459.2269830956056</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1997</v>
       </c>
@@ -22862,7 +22892,7 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>1064.8475972081101</v>
+        <v>2016.8661320216099</v>
       </c>
       <c r="D96">
         <v>248</v>
@@ -22893,10 +22923,10 @@
       </c>
       <c r="P96">
         <f>SUM(C65:C76)</f>
-        <v>-31688.736011051689</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>303.63148500215766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1997</v>
       </c>
@@ -22904,7 +22934,7 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>1173.29890172877</v>
+        <v>2103.6196961835199</v>
       </c>
       <c r="D97">
         <v>240</v>
@@ -22935,10 +22965,10 @@
       </c>
       <c r="P97">
         <f>SUM(C77:C88)</f>
-        <v>-20924.736969494043</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2978.3271571826663</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -22946,7 +22976,7 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>-5623.7556651262403</v>
+        <v>-1218.6736655777199</v>
       </c>
       <c r="D98">
         <v>248</v>
@@ -22977,10 +23007,10 @@
       </c>
       <c r="P98">
         <f>SUM(C89:C100)</f>
-        <v>-37167.967342356933</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-6719.890757071691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1997</v>
       </c>
@@ -22988,7 +23018,7 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>-6892.50181424327</v>
+        <v>-3938.5797851157199</v>
       </c>
       <c r="D99">
         <v>240</v>
@@ -23019,10 +23049,10 @@
       </c>
       <c r="P99">
         <f>SUM(C101:C112)</f>
-        <v>-38431.943278156657</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-3420.2025468097836</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1997</v>
       </c>
@@ -23030,7 +23060,7 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>-8136.1308044162897</v>
+        <v>-5188.7162261794401</v>
       </c>
       <c r="D100">
         <v>248</v>
@@ -23061,10 +23091,10 @@
       </c>
       <c r="P100">
         <f>SUM(C113:C124)</f>
-        <v>-39699.455271529965</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-7853.1853713025193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1998</v>
       </c>
@@ -23072,7 +23102,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>-9672.1898704157593</v>
+        <v>-5162.6747640436797</v>
       </c>
       <c r="D101">
         <v>248</v>
@@ -23103,10 +23133,10 @@
       </c>
       <c r="P101">
         <f>SUM(C125:C136)</f>
-        <v>-38912.899522807827</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-5381.0154888472644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1998</v>
       </c>
@@ -23114,7 +23144,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>-8310.5456236129994</v>
+        <v>-3820.1334430158699</v>
       </c>
       <c r="D102">
         <v>224</v>
@@ -23145,10 +23175,10 @@
       </c>
       <c r="P102">
         <f>SUM(C137:C148)</f>
-        <v>-535.0699659232223</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-436.67561864964046</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1998</v>
       </c>
@@ -23156,7 +23186,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>-5545.0000872786704</v>
+        <v>-1331.0866164869799</v>
       </c>
       <c r="D103">
         <v>248</v>
@@ -23187,10 +23217,10 @@
       </c>
       <c r="P103">
         <f>SUM(C149:C160)</f>
-        <v>-7148.8121693385347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-6115.3654365009124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1998</v>
       </c>
@@ -23198,7 +23228,7 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>-4222.1038188285802</v>
+        <v>-1076.85935894663</v>
       </c>
       <c r="D104">
         <v>240</v>
@@ -23229,10 +23259,10 @@
       </c>
       <c r="P104">
         <f>SUM(C161:C172)</f>
-        <v>3020.9950168251194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1168.8869759119166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1998</v>
       </c>
@@ -23240,7 +23270,7 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>2322.7444111494201</v>
+        <v>3636.46859171709</v>
       </c>
       <c r="D105">
         <v>248</v>
@@ -23271,10 +23301,10 @@
       </c>
       <c r="P105">
         <f>SUM(C173:C184)</f>
-        <v>-5337.2175288346452</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-4607.2586103104832</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1998</v>
       </c>
@@ -23282,7 +23312,7 @@
         <v>6</v>
       </c>
       <c r="C106">
-        <v>3194.5276600474499</v>
+        <v>4172.0342851517898</v>
       </c>
       <c r="D106">
         <v>240</v>
@@ -23313,10 +23343,10 @@
       </c>
       <c r="P106">
         <f>SUM(C185:C196)</f>
-        <v>-9871.8928220970374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12800.120229756478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1998</v>
       </c>
@@ -23324,7 +23354,7 @@
         <v>7</v>
       </c>
       <c r="C107">
-        <v>1597.04652362711</v>
+        <v>3085.55323077606</v>
       </c>
       <c r="D107">
         <v>248</v>
@@ -23355,10 +23385,10 @@
       </c>
       <c r="P107">
         <f>SUM(C197:C208)</f>
-        <v>-6801.6578153543014</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10873.290594453723</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1998</v>
       </c>
@@ -23366,7 +23396,7 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>-509.95894051395499</v>
+        <v>1362.7780696386301</v>
       </c>
       <c r="D108">
         <v>248</v>
@@ -23393,7 +23423,7 @@
         <v>121.26927480916029</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1998</v>
       </c>
@@ -23401,7 +23431,7 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>-2654.6630087088702</v>
+        <v>273.85340566975799</v>
       </c>
       <c r="D109">
         <v>240</v>
@@ -23431,7 +23461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1998</v>
       </c>
@@ -23439,7 +23469,7 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>-1461.5744194885001</v>
+        <v>1351.7047683432299</v>
       </c>
       <c r="D110">
         <v>248</v>
@@ -23470,10 +23500,13 @@
       </c>
       <c r="P110">
         <f>SUM(C2:C6)</f>
-        <v>-25765.288911948272</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-11131.945401655161</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1998</v>
       </c>
@@ -23481,7 +23514,7 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>-3348.4490251314801</v>
+        <v>-1225.77580789274</v>
       </c>
       <c r="D111">
         <v>240</v>
@@ -23512,10 +23545,10 @@
       </c>
       <c r="P111">
         <f>SUM(C14:C18)</f>
-        <v>-35836.769818354558</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-17593.173202014164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1998</v>
       </c>
@@ -23523,7 +23556,7 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>-9821.7770790018203</v>
+        <v>-4686.0649077204398</v>
       </c>
       <c r="D112">
         <v>248</v>
@@ -23554,10 +23587,10 @@
       </c>
       <c r="P112">
         <f>SUM(C26:C30)</f>
-        <v>-34735.287690640376</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-17091.284643806848</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1999</v>
       </c>
@@ -23565,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>-9082.9015729649</v>
+        <v>-4514.4673269186897</v>
       </c>
       <c r="D113">
         <v>248</v>
@@ -23596,10 +23629,10 @@
       </c>
       <c r="P113">
         <f>SUM(C38:C42)</f>
-        <v>-31471.846859786212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14063.847523111581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1999</v>
       </c>
@@ -23607,7 +23640,7 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>-2525.0575224068398</v>
+        <v>-633.16365825634898</v>
       </c>
       <c r="D114">
         <v>224</v>
@@ -23638,10 +23671,10 @@
       </c>
       <c r="P114">
         <f>SUM(C50:C54)</f>
-        <v>-35123.116682272434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-16693.869062219208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1999</v>
       </c>
@@ -23649,7 +23682,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>-7914.9991283448499</v>
+        <v>-2976.0434037120799</v>
       </c>
       <c r="D115">
         <v>248</v>
@@ -23680,10 +23713,10 @@
       </c>
       <c r="P115">
         <f>SUM(C62:C66)</f>
-        <v>-31895.519658081394</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14467.526111668431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1999</v>
       </c>
@@ -23691,7 +23724,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>1320.44346598744</v>
+        <v>3169.2520659024999</v>
       </c>
       <c r="D116">
         <v>240</v>
@@ -23722,10 +23755,10 @@
       </c>
       <c r="P116">
         <f>SUM(C74:C78)</f>
-        <v>-22468.769630675248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10093.346926555503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1999</v>
       </c>
@@ -23733,7 +23766,7 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>-4167.0348498863996</v>
+        <v>9.1635072648265297</v>
       </c>
       <c r="D117">
         <v>248</v>
@@ -23764,10 +23797,10 @@
       </c>
       <c r="P117">
         <f>SUM(C86:C90)</f>
-        <v>-24970.276160826914</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-10881.07736533432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1999</v>
       </c>
@@ -23775,7 +23808,7 @@
         <v>6</v>
       </c>
       <c r="C118">
-        <v>2188.1619994682401</v>
+        <v>3114.1144414002601</v>
       </c>
       <c r="D118">
         <v>240</v>
@@ -23806,10 +23839,10 @@
       </c>
       <c r="P118">
         <f>SUM(C98:C102)</f>
-        <v>-38635.123777814559</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-19328.777883932431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1999</v>
       </c>
@@ -23817,7 +23850,7 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>3113.5105633376702</v>
+        <v>3613.4818768242299</v>
       </c>
       <c r="D119">
         <v>248</v>
@@ -23848,10 +23881,10 @@
       </c>
       <c r="P119">
         <f>SUM(C110:C114)</f>
-        <v>-26239.759618993543</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9707.7669324449889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1999</v>
       </c>
@@ -23859,7 +23892,7 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>-1418.50022456703</v>
+        <v>414.904249708333</v>
       </c>
       <c r="D120">
         <v>248</v>
@@ -23890,10 +23923,10 @@
       </c>
       <c r="P120">
         <f>SUM(C122:C126)</f>
-        <v>-33500.435919473966</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14593.073996261999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1999</v>
       </c>
@@ -23901,7 +23934,7 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>-2728.0251649776601</v>
+        <v>-1689.6320207527301</v>
       </c>
       <c r="D121">
         <v>240</v>
@@ -23932,10 +23965,10 @@
       </c>
       <c r="P121">
         <f>SUM(C134:C138)</f>
-        <v>-27571.176575409474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-19655.096317213371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1999</v>
       </c>
@@ -23943,7 +23976,7 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>-5083.4243498167598</v>
+        <v>-2130.2726006204498</v>
       </c>
       <c r="D122">
         <v>248</v>
@@ -23974,10 +24007,10 @@
       </c>
       <c r="P122">
         <f>SUM(C146:C150)</f>
-        <v>-7902.9048485868598</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-9395.0418573466141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1999</v>
       </c>
@@ -23985,7 +24018,7 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>-3559.15102790623</v>
+        <v>-1255.5591842953199</v>
       </c>
       <c r="D123">
         <v>240</v>
@@ -23995,10 +24028,10 @@
       </c>
       <c r="P123">
         <f>SUM(C158:C162)</f>
-        <v>-11658.35627302476</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-18813.067817344971</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1999</v>
       </c>
@@ -24006,7 +24039,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>-9842.4774594526498</v>
+        <v>-4974.9633178470503</v>
       </c>
       <c r="D124">
         <v>248</v>
@@ -24016,10 +24049,10 @@
       </c>
       <c r="P124">
         <f>SUM(C170:C174)</f>
-        <v>-12062.496919986992</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-12799.735506017925</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2000</v>
       </c>
@@ -24027,7 +24060,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>-3071.2908763123301</v>
+        <v>-723.65935042333001</v>
       </c>
       <c r="D125">
         <v>248</v>
@@ -24037,10 +24070,10 @@
       </c>
       <c r="P125">
         <f>SUM(C182:C186)</f>
-        <v>-10535.86035901614</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-14558.708680204893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2000</v>
       </c>
@@ -24048,7 +24081,7 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>-11944.092205986</v>
+        <v>-5508.6195430758498</v>
       </c>
       <c r="D126">
         <v>232</v>
@@ -24058,10 +24091,10 @@
       </c>
       <c r="P126">
         <f>SUM(C194:C198)</f>
-        <v>-15433.642353488511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-19236.067165870511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2000</v>
       </c>
@@ -24069,13 +24102,13 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>-7414.6576153628102</v>
+        <v>-3248.90439968601</v>
       </c>
       <c r="D127">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2000</v>
       </c>
@@ -24083,13 +24116,13 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>-2968.92327814992</v>
+        <v>-215.357205337685</v>
       </c>
       <c r="D128">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2000</v>
       </c>
@@ -24097,13 +24130,13 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <v>-608.71992683000497</v>
+        <v>1762.10378023731</v>
       </c>
       <c r="D129">
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2000</v>
       </c>
@@ -24111,13 +24144,13 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>2940.49380833026</v>
+        <v>4170.6593795326298</v>
       </c>
       <c r="D130">
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2000</v>
       </c>
@@ -24125,13 +24158,13 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>3908.0935147445198</v>
+        <v>4741.65957422871</v>
       </c>
       <c r="D131">
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2000</v>
       </c>
@@ -24139,13 +24172,13 @@
         <v>8</v>
       </c>
       <c r="C132">
-        <v>1582.0857362306101</v>
+        <v>3160.5464953401502</v>
       </c>
       <c r="D132">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2000</v>
       </c>
@@ -24153,13 +24186,13 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>-393.86168762978599</v>
+        <v>1392.0268887704599</v>
       </c>
       <c r="D133">
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2000</v>
       </c>
@@ -24167,13 +24200,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>-4781.1319511271504</v>
+        <v>-2170.5949435340499</v>
       </c>
       <c r="D134">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2000</v>
       </c>
@@ -24181,13 +24214,13 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>-8530.5648027511706</v>
+        <v>-4926.31751007206</v>
       </c>
       <c r="D135">
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2000</v>
       </c>
@@ -24195,13 +24228,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>-7630.33023796404</v>
+        <v>-3814.5586548275401</v>
       </c>
       <c r="D136">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2001</v>
       </c>
@@ -24209,13 +24242,13 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>-3259.3603844077402</v>
+        <v>-5167.1041305226499</v>
       </c>
       <c r="D137">
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2001</v>
       </c>
@@ -24223,13 +24256,13 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>-3369.7891991593701</v>
+        <v>-3576.5210782570698</v>
       </c>
       <c r="D138">
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2001</v>
       </c>
@@ -24237,13 +24270,13 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>717.34963903370897</v>
+        <v>-129.51978202384001</v>
       </c>
       <c r="D139">
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2001</v>
       </c>
@@ -24251,13 +24284,13 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>-1546.9659879627</v>
+        <v>-813.00924650472405</v>
       </c>
       <c r="D140">
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2001</v>
       </c>
@@ -24265,13 +24298,13 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>4253.9866875236003</v>
+        <v>4686.9038804012898</v>
       </c>
       <c r="D141">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2001</v>
       </c>
@@ -24279,13 +24312,13 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>-214.001672660662</v>
+        <v>1845.8788631449399</v>
       </c>
       <c r="D142">
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2001</v>
       </c>
@@ -24293,13 +24326,13 @@
         <v>7</v>
       </c>
       <c r="C143">
-        <v>3367.7110800434998</v>
+        <v>4146.9858045107703</v>
       </c>
       <c r="D143">
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2001</v>
       </c>
@@ -24307,13 +24340,13 @@
         <v>8</v>
       </c>
       <c r="C144">
-        <v>3297.03252639931</v>
+        <v>3510.9969313275001</v>
       </c>
       <c r="D144">
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2001</v>
       </c>
@@ -24321,13 +24354,13 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>-1517.51490561934</v>
+        <v>-1023.93637329926</v>
       </c>
       <c r="D145">
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2001</v>
       </c>
@@ -24335,13 +24368,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>1314.86831226712</v>
+        <v>749.16500843840595</v>
       </c>
       <c r="D146">
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2001</v>
       </c>
@@ -24349,13 +24382,13 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>-290.26689475062898</v>
+        <v>-562.82926947186104</v>
       </c>
       <c r="D147">
         <v>240</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2001</v>
       </c>
@@ -24363,13 +24396,13 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>-3288.1191666300201</v>
+        <v>-4103.6862263931398</v>
       </c>
       <c r="D148">
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2002</v>
       </c>
@@ -24377,13 +24410,13 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>-2379.13907823201</v>
+        <v>-2754.27190669437</v>
       </c>
       <c r="D149">
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2002</v>
       </c>
@@ -24391,13 +24424,13 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>-3260.2480212413202</v>
+        <v>-2723.4194632256499</v>
       </c>
       <c r="D150">
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2002</v>
       </c>
@@ -24405,13 +24438,13 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>-3056.3272842762099</v>
+        <v>-2049.55215105256</v>
       </c>
       <c r="D151">
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2002</v>
       </c>
@@ -24419,13 +24452,13 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>-1106.2484522724601</v>
+        <v>-144.33535675224701</v>
       </c>
       <c r="D152">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2002</v>
       </c>
@@ -24433,13 +24466,13 @@
         <v>5</v>
       </c>
       <c r="C153">
-        <v>1200.9164945959899</v>
+        <v>2280.2576230546601</v>
       </c>
       <c r="D153">
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2002</v>
       </c>
@@ -24447,13 +24480,13 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>4279.4271691386202</v>
+        <v>4242.6741491513103</v>
       </c>
       <c r="D154">
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2002</v>
       </c>
@@ -24461,13 +24494,13 @@
         <v>7</v>
       </c>
       <c r="C155">
-        <v>2842.9957863070699</v>
+        <v>3575.60400919635</v>
       </c>
       <c r="D155">
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2002</v>
       </c>
@@ -24475,13 +24508,13 @@
         <v>8</v>
       </c>
       <c r="C156">
-        <v>812.00164707964996</v>
+        <v>1269.8387517194101</v>
       </c>
       <c r="D156">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2002</v>
       </c>
@@ -24489,13 +24522,13 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>272.03419496595501</v>
+        <v>675.01207380590301</v>
       </c>
       <c r="D157">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2002</v>
       </c>
@@ -24503,13 +24536,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>-1664.5419044685</v>
+        <v>-2931.6738140316502</v>
       </c>
       <c r="D158">
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2002</v>
       </c>
@@ -24517,13 +24550,13 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>-3337.53235085088</v>
+        <v>-4170.2025133777497</v>
       </c>
       <c r="D159">
         <v>240</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2002</v>
       </c>
@@ -24531,13 +24564,13 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>-1752.1503700844401</v>
+        <v>-3385.29683829432</v>
       </c>
       <c r="D160">
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2003</v>
       </c>
@@ -24545,13 +24578,13 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>-1569.0562361135001</v>
+        <v>-3819.3698792724799</v>
       </c>
       <c r="D161">
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2003</v>
       </c>
@@ -24559,13 +24592,13 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>-3335.0754115074401</v>
+        <v>-4506.5247723687698</v>
       </c>
       <c r="D162">
         <v>224</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2003</v>
       </c>
@@ -24573,13 +24606,13 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>-1921.1492121036299</v>
+        <v>-1993.49846492595</v>
       </c>
       <c r="D163">
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2003</v>
       </c>
@@ -24587,13 +24620,13 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>1900.8068889160099</v>
+        <v>1914.60998136848</v>
       </c>
       <c r="D164">
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2003</v>
       </c>
@@ -24601,13 +24634,13 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>2622.7066458498698</v>
+        <v>2693.4060348411899</v>
       </c>
       <c r="D165">
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2003</v>
       </c>
@@ -24615,13 +24648,13 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>2639.3930648063501</v>
+        <v>2751.6743704381702</v>
       </c>
       <c r="D166">
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2003</v>
       </c>
@@ -24629,13 +24662,13 @@
         <v>7</v>
       </c>
       <c r="C167">
-        <v>2368.5571726428202</v>
+        <v>2159.5971766265202</v>
       </c>
       <c r="D167">
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2003</v>
       </c>
@@ -24643,13 +24676,13 @@
         <v>8</v>
       </c>
       <c r="C168">
-        <v>2056.3257967600298</v>
+        <v>1423.18490296504</v>
       </c>
       <c r="D168">
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2003</v>
       </c>
@@ -24657,13 +24690,13 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>3055.0539211346099</v>
+        <v>3222.6332269436198</v>
       </c>
       <c r="D169">
         <v>240</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2003</v>
       </c>
@@ -24671,13 +24704,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>779.39905216132797</v>
+        <v>210.84995691724501</v>
       </c>
       <c r="D170">
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2003</v>
       </c>
@@ -24685,13 +24718,13 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>-1622.1946448508199</v>
+        <v>-1472.59584421355</v>
       </c>
       <c r="D171">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2003</v>
       </c>
@@ -24699,13 +24732,13 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>-3953.77202087051</v>
+        <v>-3752.8536652314301</v>
       </c>
       <c r="D172">
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -24713,13 +24746,13 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>-4637.03425264424</v>
+        <v>-4970.7630420967898</v>
       </c>
       <c r="D173">
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -24727,13 +24760,13 @@
         <v>2</v>
       </c>
       <c r="C174">
-        <v>-2628.89505378275</v>
+        <v>-2814.3729113934</v>
       </c>
       <c r="D174">
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -24741,13 +24774,13 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>-3791.5665696729902</v>
+        <v>-2575.9537528774499</v>
       </c>
       <c r="D175">
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -24755,13 +24788,13 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>-2036.04288523061</v>
+        <v>-987.35636136498795</v>
       </c>
       <c r="D176">
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -24769,13 +24802,13 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>3921.4888025393502</v>
+        <v>4097.1940748766201</v>
       </c>
       <c r="D177">
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2004</v>
       </c>
@@ -24783,13 +24816,13 @@
         <v>6</v>
       </c>
       <c r="C178">
-        <v>2101.9973528448099</v>
+        <v>2555.4097339088398</v>
       </c>
       <c r="D178">
         <v>240</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2004</v>
       </c>
@@ -24797,13 +24830,13 @@
         <v>7</v>
       </c>
       <c r="C179">
-        <v>3291.2700778349699</v>
+        <v>3477.2423058074901</v>
       </c>
       <c r="D179">
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2004</v>
       </c>
@@ -24811,13 +24844,13 @@
         <v>8</v>
       </c>
       <c r="C180">
-        <v>1919.8890076252001</v>
+        <v>2003.2728337671299</v>
       </c>
       <c r="D180">
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2004</v>
       </c>
@@ -24825,13 +24858,13 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>435.67529990569398</v>
+        <v>485.39166892716503</v>
       </c>
       <c r="D181">
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2004</v>
       </c>
@@ -24839,13 +24872,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>696.45100138812097</v>
+        <v>-508.226507150092</v>
       </c>
       <c r="D182">
         <v>248</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2004</v>
       </c>
@@ -24853,13 +24886,13 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>-1068.0371941122601</v>
+        <v>-2471.9411235073599</v>
       </c>
       <c r="D183">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2004</v>
       </c>
@@ -24867,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>-3542.4131155299401</v>
+        <v>-2897.15552920765</v>
       </c>
       <c r="D184">
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -24881,13 +24914,13 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>-2777.1794982298302</v>
+        <v>-3384.07486497425</v>
       </c>
       <c r="D185">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -24895,13 +24928,13 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>-3844.6815525322299</v>
+        <v>-5297.3106553655398</v>
       </c>
       <c r="D186">
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -24909,13 +24942,13 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>-155.57507270745401</v>
+        <v>-597.958314344408</v>
       </c>
       <c r="D187">
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -24923,13 +24956,13 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>-3048.22955541992</v>
+        <v>-2191.5195946884101</v>
       </c>
       <c r="D188">
         <v>240</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -24937,13 +24970,13 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>3313.8630314675102</v>
+        <v>4402.5876723541696</v>
       </c>
       <c r="D189">
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -24951,13 +24984,13 @@
         <v>6</v>
       </c>
       <c r="C190">
-        <v>75.289630242022298</v>
+        <v>-175.263998507803</v>
       </c>
       <c r="D190">
         <v>240</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -24965,13 +24998,13 @@
         <v>7</v>
       </c>
       <c r="C191">
-        <v>3053.6583437459399</v>
+        <v>3422.7159763537702</v>
       </c>
       <c r="D191">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -24979,13 +25012,13 @@
         <v>8</v>
       </c>
       <c r="C192">
-        <v>1698.4695218429399</v>
+        <v>1579.4327989349499</v>
       </c>
       <c r="D192">
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -24993,13 +25026,13 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>-349.656487969696</v>
+        <v>-430.48390471661401</v>
       </c>
       <c r="D193">
         <v>240</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -25007,13 +25040,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>-2100.22631373987</v>
+        <v>-2747.6278921817102</v>
       </c>
       <c r="D194">
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -25021,13 +25054,13 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>-3052.1082991769899</v>
+        <v>-3484.2690908059599</v>
       </c>
       <c r="D195">
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -25035,13 +25068,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>-2685.5165696194599</v>
+        <v>-3896.3483618146702</v>
       </c>
       <c r="D196">
         <v>248</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2006</v>
       </c>
@@ -25049,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>-4409.4155146366202</v>
+        <v>-4722.3395678275001</v>
       </c>
       <c r="D197">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2006</v>
       </c>
@@ -25063,13 +25096,13 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>-3186.3756563155698</v>
+        <v>-4385.4822532406697</v>
       </c>
       <c r="D198">
         <v>224</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2006</v>
       </c>
@@ -25077,13 +25110,13 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>-2445.4982502180701</v>
+        <v>-2815.4421931224001</v>
       </c>
       <c r="D199">
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2006</v>
       </c>
@@ -25091,13 +25124,13 @@
         <v>4</v>
       </c>
       <c r="C200">
-        <v>1907.64982732113</v>
+        <v>1864.0545446358201</v>
       </c>
       <c r="D200">
         <v>240</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2006</v>
       </c>
@@ -25105,13 +25138,13 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>2783.0103735683601</v>
+        <v>2845.6829243646698</v>
       </c>
       <c r="D201">
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2006</v>
       </c>
@@ -25119,13 +25152,13 @@
         <v>6</v>
       </c>
       <c r="C202">
-        <v>2703.2450100309702</v>
+        <v>2611.9984043661998</v>
       </c>
       <c r="D202">
         <v>240</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2006</v>
       </c>
@@ -25133,13 +25166,13 @@
         <v>7</v>
       </c>
       <c r="C203">
-        <v>3398.79841186458</v>
+        <v>3184.44940124398</v>
       </c>
       <c r="D203">
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2006</v>
       </c>
@@ -25147,13 +25180,13 @@
         <v>8</v>
       </c>
       <c r="C204">
-        <v>2185.5617574701</v>
+        <v>2305.0772963771301</v>
       </c>
       <c r="D204">
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2006</v>
       </c>
@@ -25161,13 +25194,13 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>-1107.3828359582601</v>
+        <v>-506.77521457350502</v>
       </c>
       <c r="D205">
         <v>240</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -25175,13 +25208,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>-3341.4881269222001</v>
+        <v>-3296.5578721454199</v>
       </c>
       <c r="D206">
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -25189,13 +25222,13 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>-1872.00149020601</v>
+        <v>-2673.1694980096399</v>
       </c>
       <c r="D207">
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -25203,13 +25236,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>-3417.7613213527102</v>
+        <v>-5284.7865665223899</v>
       </c>
       <c r="D208">
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2007</v>
       </c>
@@ -25217,13 +25250,13 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>-4568.7331977775802</v>
+        <v>-6019.13649241644</v>
       </c>
       <c r="D209">
         <v>248</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2007</v>
       </c>
@@ -25231,13 +25264,13 @@
         <v>2</v>
       </c>
       <c r="C210">
-        <v>-4885.8006949862302</v>
+        <v>-6188.67233943262</v>
       </c>
       <c r="D210">
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2007</v>
       </c>
@@ -25245,13 +25278,13 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>-1386.6283226770499</v>
+        <v>-2256.66098514335</v>
       </c>
       <c r="D211">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2007</v>
       </c>
@@ -25259,13 +25292,13 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>-2489.3020551600998</v>
+        <v>-1451.8998784590201</v>
       </c>
       <c r="D212">
         <v>240</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2007</v>
       </c>
@@ -25273,13 +25306,13 @@
         <v>5</v>
       </c>
       <c r="C213">
-        <v>-1484.916362275</v>
+        <v>-703.87997753785703</v>
       </c>
       <c r="D213">
         <v>248</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2007</v>
       </c>
@@ -25287,13 +25320,13 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>4277.8305043670598</v>
+        <v>4858.6548172660396</v>
       </c>
       <c r="D214">
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2007</v>
       </c>
@@ -25301,13 +25334,13 @@
         <v>7</v>
       </c>
       <c r="C215">
-        <v>5951.3729181786803</v>
+        <v>6064.95639575735</v>
       </c>
       <c r="D215">
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2007</v>
       </c>
@@ -25315,13 +25348,13 @@
         <v>8</v>
       </c>
       <c r="C216">
-        <v>549.52009880238495</v>
+        <v>748.09604296407497</v>
       </c>
       <c r="D216">
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2007</v>
       </c>
@@ -25329,13 +25362,13 @@
         <v>9</v>
       </c>
       <c r="C217">
-        <v>1051.6449696684001</v>
+        <v>928.17061453148801</v>
       </c>
       <c r="D217">
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2007</v>
       </c>
@@ -25343,13 +25376,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>-2709.3390355236002</v>
+        <v>-3154.2850017291598</v>
       </c>
       <c r="D218">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2007</v>
       </c>
@@ -25357,13 +25390,13 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>-3013.33371915823</v>
+        <v>-4417.0985167509198</v>
       </c>
       <c r="D219">
         <v>240</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2007</v>
       </c>
@@ -25371,13 +25404,13 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>-2418.3215138247101</v>
+        <v>-3572.9317492811701</v>
       </c>
       <c r="D220">
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2008</v>
       </c>
@@ -25385,13 +25418,13 @@
         <v>1</v>
       </c>
       <c r="C221">
-        <v>-2528.11362852401</v>
+        <v>-3681.4501760099602</v>
       </c>
       <c r="D221">
         <v>248</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2008</v>
       </c>
@@ -25399,13 +25432,13 @@
         <v>2</v>
       </c>
       <c r="C222">
-        <v>-2490.7970652224999</v>
+        <v>-2294.1573733105902</v>
       </c>
       <c r="D222">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2008</v>
       </c>
@@ -25413,13 +25446,13 @@
         <v>3</v>
       </c>
       <c r="C223">
-        <v>-3698.92038581826</v>
+        <v>-2932.2845631841801</v>
       </c>
       <c r="D223">
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2008</v>
       </c>
@@ -25427,13 +25460,13 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>906.96423017418704</v>
+        <v>1185.45287174382</v>
       </c>
       <c r="D224">
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2008</v>
       </c>
@@ -25441,13 +25474,13 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>938.87620345141897</v>
+        <v>1550.1076907809299</v>
       </c>
       <c r="D225">
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2008</v>
       </c>
@@ -25455,13 +25488,13 @@
         <v>6</v>
       </c>
       <c r="C226">
-        <v>2360.8087351314798</v>
+        <v>3091.5099571853402</v>
       </c>
       <c r="D226">
         <v>240</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2008</v>
       </c>
@@ -25469,13 +25502,13 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <v>2880.8544940508</v>
+        <v>2408.4789806158001</v>
       </c>
       <c r="D227">
         <v>248</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2008</v>
       </c>
@@ -25483,13 +25516,13 @@
         <v>8</v>
       </c>
       <c r="C228">
-        <v>4448.1351787164804</v>
+        <v>4427.3307297282399</v>
       </c>
       <c r="D228">
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2008</v>
       </c>
@@ -25497,13 +25530,13 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>-1053.6947696714501</v>
+        <v>-798.804638906028</v>
       </c>
       <c r="D229">
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2008</v>
       </c>
@@ -25511,13 +25544,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>-2001.79802202065</v>
+        <v>-2972.3012888931598</v>
       </c>
       <c r="D230">
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2008</v>
       </c>
@@ -25525,13 +25558,13 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>-768.91051437711099</v>
+        <v>-1781.5023551284401</v>
       </c>
       <c r="D231">
         <v>240</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2008</v>
       </c>
@@ -25539,13 +25572,13 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>-2819.9539119134502</v>
+        <v>-3076.54282436426</v>
       </c>
       <c r="D232">
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2009</v>
       </c>
@@ -25553,13 +25586,13 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>-4608.9802650137499</v>
+        <v>-5856.0920228690602</v>
       </c>
       <c r="D233">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2009</v>
       </c>
@@ -25567,13 +25600,13 @@
         <v>2</v>
       </c>
       <c r="C234">
-        <v>-3095.7049772370501</v>
+        <v>-3249.05699792839</v>
       </c>
       <c r="D234">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2009</v>
       </c>
@@ -25581,13 +25614,13 @@
         <v>3</v>
       </c>
       <c r="C235">
-        <v>-3421.70284316687</v>
+        <v>-3595.9183908321802</v>
       </c>
       <c r="D235">
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2009</v>
       </c>
@@ -25595,13 +25628,13 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>1641.4487776420799</v>
+        <v>1866.19312763837</v>
       </c>
       <c r="D236">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2009</v>
       </c>
@@ -25609,13 +25642,13 @@
         <v>5</v>
       </c>
       <c r="C237">
-        <v>1134.3218264695299</v>
+        <v>1013.85497259638</v>
       </c>
       <c r="D237">
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2009</v>
       </c>
@@ -25623,13 +25656,13 @@
         <v>6</v>
       </c>
       <c r="C238">
-        <v>902.11582224986398</v>
+        <v>1389.8122812341001</v>
       </c>
       <c r="D238">
         <v>240</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2009</v>
       </c>
@@ -25637,13 +25670,13 @@
         <v>7</v>
       </c>
       <c r="C239">
-        <v>3701.8054336958498</v>
+        <v>3863.73850562294</v>
       </c>
       <c r="D239">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2009</v>
       </c>
@@ -25651,13 +25684,13 @@
         <v>8</v>
       </c>
       <c r="C240">
-        <v>2091.8703559135201</v>
+        <v>1511.6185464786699</v>
       </c>
       <c r="D240">
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2009</v>
       </c>
@@ -25665,13 +25698,13 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>508.02084938093702</v>
+        <v>-463.55109065589897</v>
       </c>
       <c r="D241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2009</v>
       </c>
@@ -25679,13 +25712,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>0.38644992752165602</v>
+        <v>-574.36068116898605</v>
       </c>
       <c r="D242">
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2009</v>
       </c>
@@ -25693,13 +25726,13 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>-3307.3615648228501</v>
+        <v>-4431.9900798969702</v>
       </c>
       <c r="D243">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2009</v>
       </c>
@@ -25707,13 +25740,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>-5128.3653075990997</v>
+        <v>-5489.1458526430497</v>
       </c>
       <c r="D244">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2010</v>
       </c>
@@ -25721,13 +25754,13 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>-4053.9655258293001</v>
+        <v>-4014.4887673542898</v>
       </c>
       <c r="D245">
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2010</v>
       </c>
@@ -25735,13 +25768,13 @@
         <v>2</v>
       </c>
       <c r="C246">
-        <v>-2063.55748438004</v>
+        <v>-3047.2176393620598</v>
       </c>
       <c r="D246">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2010</v>
       </c>
@@ -25749,13 +25782,13 @@
         <v>3</v>
       </c>
       <c r="C247">
-        <v>-3059.2659616240098</v>
+        <v>-2691.03945220491</v>
       </c>
       <c r="D247">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2010</v>
       </c>
@@ -25763,13 +25796,13 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>481.66992682095099</v>
+        <v>764.74376284703305</v>
       </c>
       <c r="D248">
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2010</v>
       </c>
@@ -25777,13 +25810,13 @@
         <v>5</v>
       </c>
       <c r="C249">
-        <v>2316.2400977280499</v>
+        <v>2850.5702689751602</v>
       </c>
       <c r="D249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2010</v>
       </c>
@@ -25791,13 +25824,13 @@
         <v>6</v>
       </c>
       <c r="C250">
-        <v>3787.2777810523698</v>
+        <v>4091.6192175711499</v>
       </c>
       <c r="D250">
         <v>240</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2010</v>
       </c>
@@ -25805,13 +25838,13 @@
         <v>7</v>
       </c>
       <c r="C251">
-        <v>2692.0904339153899</v>
+        <v>2684.62359169092</v>
       </c>
       <c r="D251">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2010</v>
       </c>
@@ -25819,13 +25852,13 @@
         <v>8</v>
       </c>
       <c r="C252">
-        <v>4266.0033383902901</v>
+        <v>4267.7225386271202</v>
       </c>
       <c r="D252">
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2010</v>
       </c>
@@ -25833,13 +25866,13 @@
         <v>9</v>
       </c>
       <c r="C253">
-        <v>754.03674855011604</v>
+        <v>1355.1414932984601</v>
       </c>
       <c r="D253">
         <v>240</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2010</v>
       </c>
@@ -25847,13 +25880,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>-2251.63857674159</v>
+        <v>-2190.9849138813402</v>
       </c>
       <c r="D254">
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2010</v>
       </c>
@@ -25861,13 +25894,13 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>-4475.0067826685199</v>
+        <v>-5012.0781527241897</v>
       </c>
       <c r="D255">
         <v>240</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2010</v>
       </c>
@@ -25875,13 +25908,13 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>-3384.4108698812902</v>
+        <v>-3975.1595557485098</v>
       </c>
       <c r="D256">
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2011</v>
       </c>
@@ -25889,13 +25922,13 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>-4752.3672575998798</v>
+        <v>-5958.1952714258396</v>
       </c>
       <c r="D257">
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2011</v>
       </c>
@@ -25903,13 +25936,13 @@
         <v>2</v>
       </c>
       <c r="C258">
-        <v>-2138.20250921039</v>
+        <v>-3803.7907377708698</v>
       </c>
       <c r="D258">
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2011</v>
       </c>
@@ -25917,13 +25950,13 @@
         <v>3</v>
       </c>
       <c r="C259">
-        <v>-1606.9245916145601</v>
+        <v>-1888.03497789836</v>
       </c>
       <c r="D259">
         <v>248</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2011</v>
       </c>
@@ -25931,13 +25964,13 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>1150.0637279785001</v>
+        <v>1314.7429240716599</v>
       </c>
       <c r="D260">
         <v>240</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2011</v>
       </c>
@@ -25945,13 +25978,13 @@
         <v>5</v>
       </c>
       <c r="C261">
-        <v>3405.46615452581</v>
+        <v>3675.7215373413501</v>
       </c>
       <c r="D261">
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2011</v>
       </c>
@@ -25959,13 +25992,13 @@
         <v>6</v>
       </c>
       <c r="C262">
-        <v>4246.5291218946204</v>
+        <v>4422.8253632955102</v>
       </c>
       <c r="D262">
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2011</v>
       </c>
@@ -25973,13 +26006,13 @@
         <v>7</v>
       </c>
       <c r="C263">
-        <v>4080.8739637654398</v>
+        <v>4261.2315312916298</v>
       </c>
       <c r="D263">
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2011</v>
       </c>
@@ -25987,13 +26020,13 @@
         <v>8</v>
       </c>
       <c r="C264">
-        <v>360.74985088609202</v>
+        <v>88.051618743328902</v>
       </c>
       <c r="D264">
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2011</v>
       </c>
@@ -26001,13 +26034,13 @@
         <v>9</v>
       </c>
       <c r="C265">
-        <v>-248.68084070649601</v>
+        <v>-429.49137627415098</v>
       </c>
       <c r="D265">
         <v>240</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2011</v>
       </c>
@@ -26015,13 +26048,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>-1512.9724855592599</v>
+        <v>-991.40379353475601</v>
       </c>
       <c r="D266">
         <v>248</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2011</v>
       </c>
@@ -26029,13 +26062,13 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>-4085.1516560617702</v>
+        <v>-4993.1389386701803</v>
       </c>
       <c r="D267">
         <v>240</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2011</v>
       </c>
@@ -26043,13 +26076,13 @@
         <v>12</v>
       </c>
       <c r="C268">
-        <v>-2048.6753263368</v>
+        <v>-1419.5965419065301</v>
       </c>
       <c r="D268">
         <v>248</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2012</v>
       </c>
@@ -26057,13 +26090,13 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>-3010.9455132860799</v>
+        <v>-3615.9267610194302</v>
       </c>
       <c r="D269">
         <v>248</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -26071,13 +26104,13 @@
         <v>2</v>
       </c>
       <c r="C270">
-        <v>-4644.0780270827399</v>
+        <v>-3573.0081134974998</v>
       </c>
       <c r="D270">
         <v>232</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2012</v>
       </c>
@@ -26085,13 +26118,13 @@
         <v>3</v>
       </c>
       <c r="C271">
-        <v>-2161.40170487868</v>
+        <v>-1821.59528174158</v>
       </c>
       <c r="D271">
         <v>248</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2012</v>
       </c>
@@ -26099,13 +26132,13 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>-946.477747323421</v>
+        <v>233.45507742524001</v>
       </c>
       <c r="D272">
         <v>240</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -26113,13 +26146,13 @@
         <v>5</v>
       </c>
       <c r="C273">
-        <v>2143.3857051424002</v>
+        <v>2620.3224247962999</v>
       </c>
       <c r="D273">
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2012</v>
       </c>
@@ -26127,13 +26160,13 @@
         <v>6</v>
       </c>
       <c r="C274">
-        <v>2684.94317257281</v>
+        <v>2910.5188140857099</v>
       </c>
       <c r="D274">
         <v>240</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2012</v>
       </c>
@@ -26141,13 +26174,13 @@
         <v>7</v>
       </c>
       <c r="C275">
-        <v>4218.1886616850397</v>
+        <v>4510.9532784680296</v>
       </c>
       <c r="D275">
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2012</v>
       </c>
@@ -26155,13 +26188,13 @@
         <v>8</v>
       </c>
       <c r="C276">
-        <v>4445.9197597537604</v>
+        <v>4344.5485558767796</v>
       </c>
       <c r="D276">
         <v>248</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2012</v>
       </c>
@@ -26169,13 +26202,13 @@
         <v>9</v>
       </c>
       <c r="C277">
-        <v>-555.345531057176</v>
+        <v>-217.495242138424</v>
       </c>
       <c r="D277">
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>2012</v>
       </c>
@@ -26183,13 +26216,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>-765.26121802804903</v>
+        <v>-757.41356664582304</v>
       </c>
       <c r="D278">
         <v>248</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2012</v>
       </c>
@@ -26197,13 +26230,13 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>-3435.3803477055299</v>
+        <v>-4186.3922206630796</v>
       </c>
       <c r="D279">
         <v>240</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>2012</v>
       </c>
@@ -26211,13 +26244,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>-3245.5907492791298</v>
+        <v>-4407.1706050071298</v>
       </c>
       <c r="D280">
         <v>248</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2013</v>
       </c>
@@ -26225,13 +26258,13 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>-2845.6019294068101</v>
+        <v>-5493.8042560249796</v>
       </c>
       <c r="D281">
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2013</v>
       </c>
@@ -26239,13 +26272,13 @@
         <v>2</v>
       </c>
       <c r="C282">
-        <v>-2323.2734589459301</v>
+        <v>-3066.0803254821399</v>
       </c>
       <c r="D282">
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -26253,13 +26286,13 @@
         <v>3</v>
       </c>
       <c r="C283">
-        <v>-2967.5150375511598</v>
+        <v>-2699.2872150602002</v>
       </c>
       <c r="D283">
         <v>248</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -26267,13 +26300,13 @@
         <v>4</v>
       </c>
       <c r="C284">
-        <v>-1024.6687718206599</v>
+        <v>72.9303377361136</v>
       </c>
       <c r="D284">
         <v>240</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -26281,13 +26314,13 @@
         <v>5</v>
       </c>
       <c r="C285">
-        <v>968.584387308239</v>
+        <v>1788.1452219181499</v>
       </c>
       <c r="D285">
         <v>248</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -26295,13 +26328,13 @@
         <v>6</v>
       </c>
       <c r="C286">
-        <v>2786.3710262406798</v>
+        <v>2498.05787308861</v>
       </c>
       <c r="D286">
         <v>240</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -26309,13 +26342,13 @@
         <v>7</v>
       </c>
       <c r="C287">
-        <v>235.52355300703701</v>
+        <v>877.004292716382</v>
       </c>
       <c r="D287">
         <v>248</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -26323,13 +26356,13 @@
         <v>8</v>
       </c>
       <c r="C288">
-        <v>3181.6594732204599</v>
+        <v>3505.3456456529202</v>
       </c>
       <c r="D288">
         <v>248</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -26337,13 +26370,13 @@
         <v>9</v>
       </c>
       <c r="C289">
-        <v>-603.22385464010904</v>
+        <v>-711.74589282532304</v>
       </c>
       <c r="D289">
         <v>240</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -26351,13 +26384,13 @@
         <v>10</v>
       </c>
       <c r="C290">
-        <v>-1311.6227341722999</v>
+        <v>-1788.52794021405</v>
       </c>
       <c r="D290">
         <v>248</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -26365,13 +26398,13 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>-2801.9238865067</v>
+        <v>-3247.5297485158098</v>
       </c>
       <c r="D291">
         <v>240</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -26379,13 +26412,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>-3964.2614581115699</v>
+        <v>-5380.2458455263604</v>
       </c>
       <c r="D292">
         <v>248</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2014</v>
       </c>
@@ -26393,13 +26426,13 @@
         <v>1</v>
       </c>
       <c r="C293">
-        <v>-4336.50203122734</v>
+        <v>-5048.1235029731797</v>
       </c>
       <c r="D293">
         <v>248</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -26407,13 +26440,13 @@
         <v>2</v>
       </c>
       <c r="C294">
-        <v>-3346.65531480348</v>
+        <v>-3845.5636666741698</v>
       </c>
       <c r="D294">
         <v>224</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -26421,13 +26454,13 @@
         <v>3</v>
       </c>
       <c r="C295">
-        <v>-5034.1424257817798</v>
+        <v>-3573.6190557200098</v>
       </c>
       <c r="D295">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>2014</v>
       </c>
@@ -26435,13 +26468,13 @@
         <v>4</v>
       </c>
       <c r="C296">
-        <v>-1156.6007722924601</v>
+        <v>-84.768542639235704</v>
       </c>
       <c r="D296">
         <v>240</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>2014</v>
       </c>
@@ -26449,13 +26482,13 @@
         <v>5</v>
       </c>
       <c r="C297">
-        <v>-361.73202330283999</v>
+        <v>63.766306488233901</v>
       </c>
       <c r="D297">
         <v>248</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>2014</v>
       </c>
@@ -26463,13 +26496,13 @@
         <v>6</v>
       </c>
       <c r="C298">
-        <v>3218.5447200768399</v>
+        <v>3306.1027180588198</v>
       </c>
       <c r="D298">
         <v>240</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -26477,13 +26510,13 @@
         <v>7</v>
       </c>
       <c r="C299">
-        <v>4017.7423743176601</v>
+        <v>3874.0479199605002</v>
       </c>
       <c r="D299">
         <v>248</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -26491,13 +26524,13 @@
         <v>8</v>
       </c>
       <c r="C300">
-        <v>2940.0807601839701</v>
+        <v>3088.1498359920502</v>
       </c>
       <c r="D300">
         <v>248</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>2014</v>
       </c>
@@ -26505,13 +26538,13 @@
         <v>9</v>
       </c>
       <c r="C301">
-        <v>1501.92951591255</v>
+        <v>1124.7406743419799</v>
       </c>
       <c r="D301">
         <v>240</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>2014</v>
       </c>
@@ -26519,13 +26552,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>-2281.6898415399201</v>
+        <v>-2732.0489226266</v>
       </c>
       <c r="D302">
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2014</v>
       </c>
@@ -26533,13 +26566,13 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>-3571.2972111773001</v>
+        <v>-4845.5969333223502</v>
       </c>
       <c r="D303">
         <v>240</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>2014</v>
       </c>
@@ -26547,13 +26580,13 @@
         <v>12</v>
       </c>
       <c r="C304">
-        <v>-4128.1407063656397</v>
+        <v>-4812.83508918595</v>
       </c>
       <c r="D304">
         <v>248</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>2015</v>
       </c>
@@ -26564,7 +26597,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2015</v>
       </c>
@@ -26575,7 +26608,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>2015</v>
       </c>
@@ -26586,7 +26619,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2015</v>
       </c>
@@ -26597,7 +26630,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2015</v>
       </c>
@@ -26608,7 +26641,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>2015</v>
       </c>
@@ -26619,7 +26652,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>2015</v>
       </c>
@@ -26630,7 +26663,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>2015</v>
       </c>
@@ -26641,7 +26674,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>2015</v>
       </c>
@@ -26652,7 +26685,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>2015</v>
       </c>
@@ -26663,7 +26696,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>2015</v>
       </c>
@@ -26674,7 +26707,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>2015</v>
       </c>
@@ -26685,7 +26718,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>2016</v>
       </c>
@@ -26696,7 +26729,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>2016</v>
       </c>
@@ -26707,7 +26740,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>2016</v>
       </c>
@@ -26718,7 +26751,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>2016</v>
       </c>
@@ -26729,7 +26762,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>2016</v>
       </c>
@@ -26740,7 +26773,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>2016</v>
       </c>
@@ -26751,7 +26784,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>2016</v>
       </c>
@@ -26762,7 +26795,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>2016</v>
       </c>
@@ -26773,7 +26806,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>2016</v>
       </c>
@@ -26784,7 +26817,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>2016</v>
       </c>
@@ -26795,7 +26828,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>2016</v>
       </c>
@@ -26806,7 +26839,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>2016</v>
       </c>
@@ -26817,7 +26850,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>2017</v>
       </c>
@@ -26828,7 +26861,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>2017</v>
       </c>
@@ -26839,7 +26872,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>2017</v>
       </c>
@@ -26850,7 +26883,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>2017</v>
       </c>
@@ -26861,7 +26894,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>2017</v>
       </c>
@@ -26872,7 +26905,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>2017</v>
       </c>
@@ -26883,7 +26916,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>2017</v>
       </c>
@@ -26894,7 +26927,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>2017</v>
       </c>
@@ -26905,7 +26938,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>2017</v>
       </c>
@@ -26916,7 +26949,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>2017</v>
       </c>
@@ -26927,7 +26960,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>2017</v>
       </c>
@@ -26938,7 +26971,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>2017</v>
       </c>
@@ -26949,7 +26982,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>2018</v>
       </c>
@@ -26960,7 +26993,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>2018</v>
       </c>
@@ -26971,7 +27004,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>2018</v>
       </c>
@@ -26982,7 +27015,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>2018</v>
       </c>
@@ -26993,7 +27026,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>2018</v>
       </c>
@@ -27004,7 +27037,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>2018</v>
       </c>
@@ -27015,7 +27048,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>2018</v>
       </c>
@@ -27026,7 +27059,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>2018</v>
       </c>
@@ -27037,7 +27070,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>2018</v>
       </c>
@@ -27048,7 +27081,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>2018</v>
       </c>
@@ -27059,7 +27092,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>2018</v>
       </c>
@@ -27070,7 +27103,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>2018</v>
       </c>
@@ -27081,7 +27114,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>2019</v>
       </c>
@@ -27092,7 +27125,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>2019</v>
       </c>
@@ -27103,7 +27136,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>2019</v>
       </c>
@@ -27114,7 +27147,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>2019</v>
       </c>
@@ -27125,7 +27158,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>2019</v>
       </c>

--- a/Wind Data/45 degree/Clarence River 45 wind and CPUE_modelled_sydney_winds.xlsx
+++ b/Wind Data/45 degree/Clarence River 45 wind and CPUE_modelled_sydney_winds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNLOC\Wind and Fisheries\Wind Data\45 degree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F44A7-D308-4148-B5EC-A44E56B8D1FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1273D94C-3F4A-45FD-84C5-FC62CBFF952B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E6F84-619C-48EF-AA8B-B7FAA87B2C0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A8E6F84-619C-48EF-AA8B-B7FAA87B2C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,34 +340,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4983.8187380468908</c:v>
+                  <c:v>-6586.2705863279098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9322.4110409077894</c:v>
+                  <c:v>-19005.012539403011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10459.065528660965</c:v>
+                  <c:v>-4952.1552143454273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9866.7593015522762</c:v>
+                  <c:v>-12151.931834163683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9954.2004246500728</c:v>
+                  <c:v>-31708.488742622802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,34 +863,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>303.63148500215766</c:v>
+                  <c:v>-12284.108437745303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2978.3271571826663</c:v>
+                  <c:v>-3606.4327157710459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6719.890757071691</c:v>
+                  <c:v>-19341.742764897564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3420.2025468097836</c:v>
+                  <c:v>-16523.775263418054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7853.1853713025193</c:v>
+                  <c:v>2704.6580610046531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5381.0154888472644</c:v>
+                  <c:v>-14987.313651187947</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-436.67561864964046</c:v>
+                  <c:v>5987.6532373964401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6115.3654365009124</c:v>
+                  <c:v>-45519.153781099827</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1168.8869759119166</c:v>
+                  <c:v>2175.1477211712645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4607.2586103104832</c:v>
+                  <c:v>7404.3611764384768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,34 +1386,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10459.065528660965</c:v>
+                  <c:v>-4952.1552143454273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9866.7593015522762</c:v>
+                  <c:v>-12151.931834163683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9954.2004246500728</c:v>
+                  <c:v>-31708.488742622802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9519.2875632743599</c:v>
+                  <c:v>-2087.8465179096515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9142.489753227961</c:v>
+                  <c:v>-2238.9877456433705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,34 +1909,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-11131.945401655161</c:v>
+                  <c:v>6994.4311422607607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17593.173202014164</c:v>
+                  <c:v>26191.71031843315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-17091.284643806848</c:v>
+                  <c:v>-2895.9524358634121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14063.847523111581</c:v>
+                  <c:v>1038.5561179475681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16693.869062219208</c:v>
+                  <c:v>9851.2536094338993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14467.526111668431</c:v>
+                  <c:v>-6070.5166818671232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10093.346926555503</c:v>
+                  <c:v>22365.00603351785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10881.07736533432</c:v>
+                  <c:v>1954.1252445320251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19328.777883932431</c:v>
+                  <c:v>-8657.9163211166415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9707.7669324449889</c:v>
+                  <c:v>15180.895836603046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,34 +2432,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16457.045402262571</c:v>
+                  <c:v>-18898.473523967943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6526.7485302542227</c:v>
+                  <c:v>-13202.06126955553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9357.7692667354222</c:v>
+                  <c:v>-22038.019748159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4983.8187380468908</c:v>
+                  <c:v>-6586.2705863279098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9322.4110409077894</c:v>
+                  <c:v>-19005.012539403011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,34 +2963,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9322.4110409077894</c:v>
+                  <c:v>-19005.012539403011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10459.065528660965</c:v>
+                  <c:v>-4952.1552143454273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9866.7593015522762</c:v>
+                  <c:v>-12151.931834163683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9954.2004246500728</c:v>
+                  <c:v>-31708.488742622802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9519.2875632743599</c:v>
+                  <c:v>-2087.8465179096515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,34 +3486,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10459.065528660965</c:v>
+                  <c:v>-4952.1552143454273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9866.7593015522762</c:v>
+                  <c:v>-12151.931834163683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9954.2004246500728</c:v>
+                  <c:v>-31708.488742622802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9519.2875632743599</c:v>
+                  <c:v>-2087.8465179096515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9142.489753227961</c:v>
+                  <c:v>-2238.9877456433705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,34 +4009,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-14467.526111668431</c:v>
+                  <c:v>-6070.5166818671232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10093.346926555503</c:v>
+                  <c:v>22365.00603351785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10881.07736533432</c:v>
+                  <c:v>1954.1252445320251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19328.777883932431</c:v>
+                  <c:v>-8657.9163211166415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9707.7669324449889</c:v>
+                  <c:v>15180.895836603046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14593.073996261999</c:v>
+                  <c:v>11892.875872577701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19655.096317213371</c:v>
+                  <c:v>968.62460845969872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9395.0418573466141</c:v>
+                  <c:v>28107.144628143607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18813.067817344971</c:v>
+                  <c:v>3550.7161512564289</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12799.735506017925</c:v>
+                  <c:v>17821.404809699416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4532,34 +4532,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10124.576198654726</c:v>
+                  <c:v>-12327.145522390194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8745.1495399595296</c:v>
+                  <c:v>-10784.863116915814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8650.9882733185004</c:v>
+                  <c:v>-12639.649719666009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9817.1967486983103</c:v>
+                  <c:v>-7853.2439037412096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9906.0118913918159</c:v>
+                  <c:v>-9830.9186658421349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10459.065528660965</c:v>
+                  <c:v>-4952.1552143454273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9866.7593015522762</c:v>
+                  <c:v>-12151.931834163683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9954.2004246500728</c:v>
+                  <c:v>-31708.488742622802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9519.2875632743599</c:v>
+                  <c:v>-2087.8465179096515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9142.489753227961</c:v>
+                  <c:v>-2238.9877456433705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,34 +5055,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-13471.005417452201</c:v>
+                  <c:v>3664.3009529642677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12857.849798790081</c:v>
+                  <c:v>16155.54485110468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9752.9750086818804</c:v>
+                  <c:v>-1362.118862295225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6652.453958991483</c:v>
+                  <c:v>16239.062831758149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9536.2439978597304</c:v>
+                  <c:v>4820.4032494461208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14171.52443323899</c:v>
+                  <c:v>-289.95870053348972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9833.6958928954791</c:v>
+                  <c:v>14306.182992380884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11207.242211346231</c:v>
+                  <c:v>10421.341619452469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12558.183863607261</c:v>
+                  <c:v>5025.3934308989301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9581.3775963131593</c:v>
+                  <c:v>17268.576279954657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5578,34 +5578,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-10970.27354806018</c:v>
+                  <c:v>3138.5143533575097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13471.005417452201</c:v>
+                  <c:v>3664.3009529642677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12857.849798790081</c:v>
+                  <c:v>16155.54485110468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9752.9750086818804</c:v>
+                  <c:v>-1362.118862295225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6652.453958991483</c:v>
+                  <c:v>16239.062831758149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9536.2439978597304</c:v>
+                  <c:v>4820.4032494461208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14171.52443323899</c:v>
+                  <c:v>-289.95870053348972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9833.6958928954791</c:v>
+                  <c:v>14306.182992380884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11207.242211346231</c:v>
+                  <c:v>10421.341619452469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12558.183863607261</c:v>
+                  <c:v>5025.3934308989301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6109,34 +6109,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-12328.470606495617</c:v>
+                  <c:v>17274.565416849211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9309.127388694651</c:v>
+                  <c:v>-1808.3757143926518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8160.5607538238528</c:v>
+                  <c:v>20465.728478042649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13282.148415806891</c:v>
+                  <c:v>15965.124653370221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15502.611049725971</c:v>
+                  <c:v>-2850.9773099712297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12809.739296607559</c:v>
+                  <c:v>20067.876919243616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14456.14661103224</c:v>
+                  <c:v>12671.406914004878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12687.703645631102</c:v>
+                  <c:v>4816.2946578190413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11630.929747365719</c:v>
+                  <c:v>21414.129384140477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13704.689954861518</c:v>
+                  <c:v>14191.51311407998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,34 +6632,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>840.03575891410765</c:v>
+                  <c:v>-32126.830829430182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7021.6966747508068</c:v>
+                  <c:v>-9126.8488275787131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319.13329224348763</c:v>
+                  <c:v>-27524.386910216046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>497.52806951224784</c:v>
+                  <c:v>6725.4433880919514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1783.6462504783717</c:v>
+                  <c:v>-2341.92565167054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5977.3692603930494</c:v>
+                  <c:v>-40833.148976783632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1669.0956155050335</c:v>
+                  <c:v>6353.6975134340501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9785.8183357359194</c:v>
+                  <c:v>-10789.349063644901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4770.6096438563854</c:v>
+                  <c:v>-8428.9274080731411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1568.048769593559</c:v>
+                  <c:v>-9920.7537026390964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7155,34 +7155,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-7021.6966747508068</c:v>
+                  <c:v>-9126.8488275787131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319.13329224348763</c:v>
+                  <c:v>-27524.386910216046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>497.52806951224784</c:v>
+                  <c:v>6725.4433880919514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1783.6462504783717</c:v>
+                  <c:v>-2341.92565167054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5977.3692603930494</c:v>
+                  <c:v>-40833.148976783632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1669.0956155050335</c:v>
+                  <c:v>6353.6975134340501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9785.8183357359194</c:v>
+                  <c:v>-10789.349063644901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4770.6096438563854</c:v>
+                  <c:v>-8428.9274080731411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1568.048769593559</c:v>
+                  <c:v>-9920.7537026390964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7926.4210609014171</c:v>
+                  <c:v>-27423.787270844852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7678,34 +7678,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-9279.6561126068191</c:v>
+                  <c:v>-24461.009715613236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3459.2269830956056</c:v>
+                  <c:v>-14774.879399351055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>303.63148500215766</c:v>
+                  <c:v>-12284.108437745303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2978.3271571826663</c:v>
+                  <c:v>-3606.4327157710459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6719.890757071691</c:v>
+                  <c:v>-19341.742764897564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3420.2025468097836</c:v>
+                  <c:v>-16523.775263418054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7853.1853713025193</c:v>
+                  <c:v>2704.6580610046531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5381.0154888472644</c:v>
+                  <c:v>-14987.313651187947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-436.67561864964046</c:v>
+                  <c:v>5987.6532373964401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6115.3654365009124</c:v>
+                  <c:v>-45519.153781099827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8201,34 +8201,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-3459.2269830956056</c:v>
+                  <c:v>-14774.879399351055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>303.63148500215766</c:v>
+                  <c:v>-12284.108437745303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2978.3271571826663</c:v>
+                  <c:v>-3606.4327157710459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6719.890757071691</c:v>
+                  <c:v>-19341.742764897564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3420.2025468097836</c:v>
+                  <c:v>-16523.775263418054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7853.1853713025193</c:v>
+                  <c:v>2704.6580610046531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5381.0154888472644</c:v>
+                  <c:v>-14987.313651187947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-436.67561864964046</c:v>
+                  <c:v>5987.6532373964401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6115.3654365009124</c:v>
+                  <c:v>-45519.153781099827</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1168.8869759119166</c:v>
+                  <c:v>2175.1477211712645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18359,13 +18359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9D2136-FF04-4C51-B136-8A74B65D6084}">
   <dimension ref="A1:AE357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P110" sqref="P110:P119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1989</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>694.10368384326102</v>
+        <v>-747.62487464572803</v>
       </c>
       <c r="D2">
         <v>248</v>
@@ -18516,7 +18516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1989</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-2341.2763676202499</v>
+        <v>5876.6634184822697</v>
       </c>
       <c r="D3">
         <v>240</v>
@@ -18605,7 +18605,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1989</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>-2867.9068467983102</v>
+        <v>1260.12377551435</v>
       </c>
       <c r="D4">
         <v>248</v>
@@ -18694,7 +18694,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-4379.0675279604602</v>
+        <v>906.81329816195705</v>
       </c>
       <c r="D5">
         <v>248</v>
@@ -18783,7 +18783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>-2237.7983431194002</v>
+        <v>-301.544475252089</v>
       </c>
       <c r="D6">
         <v>224</v>
@@ -18872,7 +18872,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-1159.1069600123401</v>
+        <v>3884.8788579014799</v>
       </c>
       <c r="D7">
         <v>248</v>
@@ -18961,7 +18961,7 @@
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1990</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>510.44011999531602</v>
+        <v>-1215.1260566357801</v>
       </c>
       <c r="D8">
         <v>240</v>
@@ -19050,7 +19050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1990</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1848.3990877081101</v>
+        <v>4562.0688524677098</v>
       </c>
       <c r="D9">
         <v>248</v>
@@ -19139,7 +19139,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3505.2691154643999</v>
+        <v>-5442.1520001524304</v>
       </c>
       <c r="D10">
         <v>240</v>
@@ -19228,7 +19228,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2364.4143779634601</v>
+        <v>-7354.0275576634704</v>
       </c>
       <c r="D11">
         <v>248</v>
@@ -19317,7 +19317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5892.8999683434804</v>
+        <v>-6164.3397616627399</v>
       </c>
       <c r="D12">
         <v>248</v>
@@ -19406,7 +19406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>264.994649383546</v>
+        <v>-4227.4012465778796</v>
       </c>
       <c r="D13">
         <v>240</v>
@@ -19468,7 +19468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>604.44825526850502</v>
+        <v>4411.3863169526903</v>
       </c>
       <c r="D14">
         <v>248</v>
@@ -19526,7 +19526,7 @@
         <v>3.0649223708549442</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>-2590.84549662565</v>
+        <v>837.53751516420402</v>
       </c>
       <c r="D15">
         <v>240</v>
@@ -19567,7 +19567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>-5804.3913015558001</v>
+        <v>6287.3672845434803</v>
       </c>
       <c r="D16">
         <v>248</v>
@@ -19606,10 +19606,10 @@
       </c>
       <c r="P16">
         <f>2*SUM(C8:C11)</f>
-        <v>16457.045402262571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-18898.473523967943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1991</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>-5314.7225180737596</v>
+        <v>4336.4224458941799</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -19648,10 +19648,10 @@
       </c>
       <c r="P17">
         <f>SUM(C20:C23)</f>
-        <v>6526.7485302542227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-13202.06126955553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1991</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>-4487.6621410274602</v>
+        <v>10318.996755878599</v>
       </c>
       <c r="D18">
         <v>224</v>
@@ -19690,10 +19690,10 @@
       </c>
       <c r="P18">
         <f>SUM(C32:C35)</f>
-        <v>9357.7692667354222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-22038.019748159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1991</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>-4065.5023517183399</v>
+        <v>3734.5295915729598</v>
       </c>
       <c r="D19">
         <v>248</v>
@@ -19732,10 +19732,10 @@
       </c>
       <c r="P19">
         <f>SUM(C44:C47)</f>
-        <v>4983.8187380468908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-6586.2705863279098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1991</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>53.762062120861103</v>
+        <v>9901.6770834028994</v>
       </c>
       <c r="D20">
         <v>240</v>
@@ -19774,10 +19774,10 @@
       </c>
       <c r="P20">
         <f>SUM(C56:C59)</f>
-        <v>9322.4110409077894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-19005.012539403011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1991</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>-424.68061877887902</v>
+        <v>-5776.0593369498401</v>
       </c>
       <c r="D21">
         <v>248</v>
@@ -19816,13 +19816,13 @@
       </c>
       <c r="P21">
         <f>SUM(C68:C71)</f>
-        <v>10124.576198654726</v>
+        <v>-12327.145522390194</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2095.8301658233499</v>
+        <v>-7612.8626455048397</v>
       </c>
       <c r="D22">
         <v>240</v>
@@ -19861,10 +19861,10 @@
       </c>
       <c r="P22">
         <f>SUM(C80:C83)</f>
-        <v>8745.1495399595296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-10784.863116915814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>4801.8369210888904</v>
+        <v>-9714.8163705037496</v>
       </c>
       <c r="D23">
         <v>248</v>
@@ -19903,10 +19903,10 @@
       </c>
       <c r="P23">
         <f>SUM(C92:C95)</f>
-        <v>8650.9882733185004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-12639.649719666009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1991</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>4110.0999653635999</v>
+        <v>-4031.8943919380199</v>
       </c>
       <c r="D24">
         <v>248</v>
@@ -19945,10 +19945,10 @@
       </c>
       <c r="P24">
         <f>SUM(C104:C107)</f>
-        <v>9817.1967486983103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-7853.2439037412096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>2291.6363411123798</v>
+        <v>-7423.3914489136896</v>
       </c>
       <c r="D25">
         <v>240</v>
@@ -19987,10 +19987,10 @@
       </c>
       <c r="P25">
         <f>SUM(C116:C119)</f>
-        <v>9906.0118913918159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-9830.9186658421349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>-2653.4665618644299</v>
+        <v>-6531.9068613789404</v>
       </c>
       <c r="D26">
         <v>248</v>
@@ -20029,10 +20029,10 @@
       </c>
       <c r="P26">
         <f>SUM(C128:C131)</f>
-        <v>10459.065528660965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-4952.1552143454273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>-3467.5445338822401</v>
+        <v>497.44007215801798</v>
       </c>
       <c r="D27">
         <v>240</v>
@@ -20071,10 +20071,10 @@
       </c>
       <c r="P27">
         <f>SUM(C140:C143)</f>
-        <v>9866.7593015522762</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-12151.931834163683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1991</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>-4351.8804031655</v>
+        <v>-2482.6285043193998</v>
       </c>
       <c r="D28">
         <v>248</v>
@@ -20113,10 +20113,10 @@
       </c>
       <c r="P28">
         <f>SUM(C152:C155)</f>
-        <v>9954.2004246500728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-31708.488742622802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1992</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>-5034.0719400902899</v>
+        <v>8647.2708606594897</v>
       </c>
       <c r="D29">
         <v>248</v>
@@ -20155,10 +20155,10 @@
       </c>
       <c r="P29">
         <f>SUM(C164:C167)</f>
-        <v>9519.2875632743599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-2087.8465179096515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1992</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>-1584.3212048043899</v>
+        <v>-3026.1280029825798</v>
       </c>
       <c r="D30">
         <v>232</v>
@@ -20197,10 +20197,10 @@
       </c>
       <c r="P30">
         <f>SUM(C176:C179)</f>
-        <v>9142.489753227961</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-2238.9877456433705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>-1979.2177782635899</v>
+        <v>-1731.76161465784</v>
       </c>
       <c r="D31">
         <v>248</v>
@@ -20239,10 +20239,10 @@
       </c>
       <c r="P31">
         <f>SUM(C188:C191)</f>
-        <v>5458.5200555117262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-9746.5911086307005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1992</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-895.86827034129703</v>
+        <v>224.643743508028</v>
       </c>
       <c r="D32">
         <v>240</v>
@@ -20281,10 +20281,10 @@
       </c>
       <c r="P32">
         <f>SUM(C200:C203)</f>
-        <v>10506.185274610671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-13311.583316301861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>1532.3904050333499</v>
+        <v>-2691.1389215825402</v>
       </c>
       <c r="D33">
         <v>248</v>
@@ -20319,7 +20319,7 @@
         <v>61.685603112840468</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>4459.6341559665898</v>
+        <v>-14518.350970412699</v>
       </c>
       <c r="D34">
         <v>240</v>
@@ -20354,7 +20354,7 @@
         <v>77.570629370629362</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1992</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>4261.6129760767799</v>
+        <v>-5053.1735996717898</v>
       </c>
       <c r="D35">
         <v>248</v>
@@ -20392,7 +20392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>3553.4570111951898</v>
+        <v>-7085.3313220172604</v>
       </c>
       <c r="D36">
         <v>248</v>
@@ -20431,10 +20431,10 @@
       </c>
       <c r="P36">
         <f>SUM(C4:C6)</f>
-        <v>-9484.7727178781715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1865.3925984242182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1992</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2968.3292578475998</v>
+        <v>-6315.0803356000897</v>
       </c>
       <c r="D37">
         <v>240</v>
@@ -20473,10 +20473,10 @@
       </c>
       <c r="P37">
         <f>SUM(C16:C18)</f>
-        <v>-15606.77596065702</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+        <v>20942.786486316261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1992</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>-259.34477157070103</v>
+        <v>3122.3931298459602</v>
       </c>
       <c r="D38">
         <v>248</v>
@@ -20515,13 +20515,13 @@
       </c>
       <c r="P38">
         <f>SUM(C28:C30)</f>
-        <v>-10970.27354806018</v>
+        <v>3138.5143533575097</v>
       </c>
       <c r="Q38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1992</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>-333.49733408868002</v>
+        <v>-5748.1379648626598</v>
       </c>
       <c r="D39">
         <v>240</v>
@@ -20560,13 +20560,13 @@
       </c>
       <c r="P39">
         <f>SUM(C40:C42)</f>
-        <v>-13471.005417452201</v>
+        <v>3664.3009529642677</v>
       </c>
       <c r="Q39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1992</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>-3557.5056881989999</v>
+        <v>731.99734523321104</v>
       </c>
       <c r="D40">
         <v>248</v>
@@ -20605,10 +20605,10 @@
       </c>
       <c r="P40">
         <f>SUM(C52:C54)</f>
-        <v>-12857.849798790081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+        <v>16155.54485110468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1993</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>-5646.8451757436396</v>
+        <v>-500.81508412000301</v>
       </c>
       <c r="D41">
         <v>248</v>
@@ -20647,10 +20647,10 @@
       </c>
       <c r="P41">
         <f>SUM(C64:C66)</f>
-        <v>-9752.9750086818804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-1362.118862295225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1993</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>-4266.6545535095602</v>
+        <v>3433.1186918510598</v>
       </c>
       <c r="D42">
         <v>224</v>
@@ -20689,10 +20689,10 @@
       </c>
       <c r="P42">
         <f>SUM(C76:C78)</f>
-        <v>-6652.453958991483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+        <v>16239.062831758149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1993</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>-552.06138234366995</v>
+        <v>-6887.8826396177201</v>
       </c>
       <c r="D43">
         <v>248</v>
@@ -20731,10 +20731,10 @@
       </c>
       <c r="P43">
         <f>SUM(C88:C90)</f>
-        <v>-9536.2439978597304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4820.4032494461208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1993</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>-902.74129396212095</v>
+        <v>-3642.2093951914999</v>
       </c>
       <c r="D44">
         <v>240</v>
@@ -20773,10 +20773,10 @@
       </c>
       <c r="P44">
         <f>SUM(C100:C102)</f>
-        <v>-14171.52443323899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-289.95870053348972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>885.93888894428005</v>
+        <v>-5842.3492148431696</v>
       </c>
       <c r="D45">
         <v>248</v>
@@ -20815,10 +20815,10 @@
       </c>
       <c r="P45">
         <f>SUM(C112:C114)</f>
-        <v>-9833.6958928954791</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14306.182992380884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>4689.3478242676301</v>
+        <v>1660.63955956378</v>
       </c>
       <c r="D46">
         <v>240</v>
@@ -20857,10 +20857,10 @@
       </c>
       <c r="P46">
         <f>SUM(C124:C126)</f>
-        <v>-11207.242211346231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10421.341619452469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>311.27331879710198</v>
+        <v>1237.6484641429799</v>
       </c>
       <c r="D47">
         <v>248</v>
@@ -20899,10 +20899,10 @@
       </c>
       <c r="P47">
         <f>SUM(C136:C138)</f>
-        <v>-12558.183863607261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+        <v>5025.3934308989301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1993</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>2214.5813462050601</v>
+        <v>-8935.0102936102903</v>
       </c>
       <c r="D48">
         <v>248</v>
@@ -20941,10 +20941,10 @@
       </c>
       <c r="P48">
         <f>SUM(C148:C150)</f>
-        <v>-9581.3775963131593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+        <v>17268.576279954657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>1017.9020666523001</v>
+        <v>-2150.8220613301601</v>
       </c>
       <c r="D49">
         <v>240</v>
@@ -20983,10 +20983,10 @@
       </c>
       <c r="P49">
         <f>SUM(C160:C162)</f>
-        <v>-11711.191489935569</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14244.772815329059</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1993</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>-1203.24767716885</v>
+        <v>-4998.8999611956897</v>
       </c>
       <c r="D50">
         <v>248</v>
@@ -21025,10 +21025,10 @@
       </c>
       <c r="P50">
         <f>SUM(C172:C174)</f>
-        <v>-11537.98961872162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+        <v>18115.090400750931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1993</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>-2632.7715862602799</v>
+        <v>-1305.3912804750901</v>
       </c>
       <c r="D51">
         <v>240</v>
@@ -21067,10 +21067,10 @@
       </c>
       <c r="P51">
         <f>SUM(C184:C186)</f>
-        <v>-11578.541049547439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+        <v>11062.992555724381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1993</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>-3194.3778884850699</v>
+        <v>3470.9634992125698</v>
       </c>
       <c r="D52">
         <v>248</v>
@@ -21109,10 +21109,10 @@
       </c>
       <c r="P52">
         <f>SUM(C196:C198)</f>
-        <v>-13004.170182882841</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10741.151984446571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1994</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>-5063.7022964424596</v>
+        <v>6440.78134267514</v>
       </c>
       <c r="D53">
         <v>248</v>
@@ -21147,7 +21147,7 @@
         <v>42.303090507726267</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1994</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>-4599.7696138625497</v>
+        <v>6243.8000092169696</v>
       </c>
       <c r="D54">
         <v>224</v>
@@ -21182,7 +21182,7 @@
         <v>39.617802197802206</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1994</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>529.37919229446402</v>
+        <v>1119.0205657445299</v>
       </c>
       <c r="D55">
         <v>248</v>
@@ -21220,7 +21220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1994</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-473.555746198441</v>
+        <v>3055.5227474981202</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -21259,10 +21259,10 @@
       </c>
       <c r="P56">
         <f>SUM(C4:C7)</f>
-        <v>-10643.879677890513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+        <v>5750.2714563256977</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1994</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>2533.9503936971601</v>
+        <v>-4759.5273074507504</v>
       </c>
       <c r="D57">
         <v>248</v>
@@ -21301,10 +21301,10 @@
       </c>
       <c r="P57">
         <f>SUM(C16:C19)</f>
-        <v>-19672.278312375362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+        <v>24677.31607788922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1994</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3538.64181602076</v>
+        <v>-8544.9345520070401</v>
       </c>
       <c r="D58">
         <v>240</v>
@@ -21343,10 +21343,10 @@
       </c>
       <c r="P58">
         <f>SUM(C28:C31)</f>
-        <v>-12949.49132632377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1406.7527386996696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1994</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3723.3745773883102</v>
+        <v>-8756.0734274433398</v>
       </c>
       <c r="D59">
         <v>248</v>
@@ -21385,10 +21385,10 @@
       </c>
       <c r="P59">
         <f>SUM(C40:C43)</f>
-        <v>-14023.066799795872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-3223.5816866534524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1994</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>2441.54573479697</v>
+        <v>2178.95049737009</v>
       </c>
       <c r="D60">
         <v>248</v>
@@ -21427,13 +21427,13 @@
       </c>
       <c r="P60">
         <f>SUM(C52:C55)</f>
-        <v>-12328.470606495617</v>
+        <v>17274.565416849211</v>
       </c>
       <c r="Q60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1994</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>2708.6032420905099</v>
+        <v>-7330.03427179138</v>
       </c>
       <c r="D61">
         <v>240</v>
@@ -21472,10 +21472,10 @@
       </c>
       <c r="P61">
         <f>SUM(C64:C67)</f>
-        <v>-9309.127388694651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-1808.3757143926518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1994</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>-1951.03853983571</v>
+        <v>-242.12753410484899</v>
       </c>
       <c r="D62">
         <v>248</v>
@@ -21514,10 +21514,10 @@
       </c>
       <c r="P62">
         <f>SUM(C76:C79)</f>
-        <v>-8160.5607538238528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+        <v>20465.728478042649</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1994</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>-2763.5125631508399</v>
+        <v>-4466.2702854670497</v>
       </c>
       <c r="D63">
         <v>240</v>
@@ -21556,10 +21556,10 @@
       </c>
       <c r="P63">
         <f>SUM(C88:C91)</f>
-        <v>-13282.148415806891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+        <v>15965.124653370221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1994</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>-4083.1431798937801</v>
+        <v>286.01281640850101</v>
       </c>
       <c r="D64">
         <v>248</v>
@@ -21598,10 +21598,10 @@
       </c>
       <c r="P64">
         <f>SUM(C100:C103)</f>
-        <v>-15502.611049725971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-2850.9773099712297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1995</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>-3094.0310053292701</v>
+        <v>-1120.1352522792099</v>
       </c>
       <c r="D65">
         <v>248</v>
@@ -21640,10 +21640,10 @@
       </c>
       <c r="P65">
         <f>SUM(C112:C115)</f>
-        <v>-12809.739296607559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>20067.876919243616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1995</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>-2575.8008234588301</v>
+        <v>-527.99642642451602</v>
       </c>
       <c r="D66">
         <v>224</v>
@@ -21682,10 +21682,10 @@
       </c>
       <c r="P66">
         <f>SUM(C124:C127)</f>
-        <v>-14456.14661103224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12671.406914004878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1995</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>443.84761998723002</v>
+        <v>-446.25685209742699</v>
       </c>
       <c r="D67">
         <v>248</v>
@@ -21724,10 +21724,10 @@
       </c>
       <c r="P67">
         <f>SUM(C136:C139)</f>
-        <v>-12687.703645631102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>4816.2946578190413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1995</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>636.90474380022704</v>
+        <v>-108.869333084083</v>
       </c>
       <c r="D68">
         <v>240</v>
@@ -21766,10 +21766,10 @@
       </c>
       <c r="P68">
         <f>SUM(C148:C151)</f>
-        <v>-11630.929747365719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>21414.129384140477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1995</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>1155.0581991832</v>
+        <v>3941.5972262985201</v>
       </c>
       <c r="D69">
         <v>248</v>
@@ -21808,10 +21808,10 @@
       </c>
       <c r="P69">
         <f>SUM(C160:C163)</f>
-        <v>-13704.689954861518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>14191.51311407998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1995</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>3677.3252866654698</v>
+        <v>-10933.1840676013</v>
       </c>
       <c r="D70">
         <v>240</v>
@@ -21850,10 +21850,10 @@
       </c>
       <c r="P70">
         <f>SUM(C172:C175)</f>
-        <v>-14113.943371599071</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>18667.667115575056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1995</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <v>4655.2879690058298</v>
+        <v>-5226.6893480033305</v>
       </c>
       <c r="D71">
         <v>248</v>
@@ -21892,10 +21892,10 @@
       </c>
       <c r="P71">
         <f>SUM(C184:C187)</f>
-        <v>-12176.499363891848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>12269.90787100263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1995</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>1261.8967377454901</v>
+        <v>-2443.1182414171899</v>
       </c>
       <c r="D72">
         <v>248</v>
@@ -21934,10 +21934,10 @@
       </c>
       <c r="P72">
         <f>SUM(C196:C199)</f>
-        <v>-15819.612376005241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>14698.842713872391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>649.19999393123101</v>
+        <v>-8194.5718838072899</v>
       </c>
       <c r="D73">
         <v>240</v>
@@ -21972,7 +21972,7 @@
         <v>38.530416666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1995</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>-1325.5116923972</v>
+        <v>2629.9220204498802</v>
       </c>
       <c r="D74">
         <v>248</v>
@@ -22010,7 +22010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1995</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>-2115.3812751668202</v>
+        <v>3496.0211813098199</v>
       </c>
       <c r="D75">
         <v>240</v>
@@ -22049,10 +22049,10 @@
       </c>
       <c r="P75">
         <f>SUM(C23:C34)</f>
-        <v>-2770.772903846927</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-42782.662410363919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1995</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>-3065.1642689644</v>
+        <v>6649.1725389108196</v>
       </c>
       <c r="D76">
         <v>248</v>
@@ -22091,10 +22091,10 @@
       </c>
       <c r="P76">
         <f>SUM(C35:C46)</f>
-        <v>840.03575891410765</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-32126.830829430182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1996</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>-4042.9742152050399</v>
+        <v>1963.06207790029</v>
       </c>
       <c r="D77">
         <v>248</v>
@@ -22133,10 +22133,10 @@
       </c>
       <c r="P77">
         <f>SUM(C47:C58)</f>
-        <v>-7021.6966747508068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-9126.8488275787131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1996</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>455.68452517795703</v>
+        <v>7626.8282149470397</v>
       </c>
       <c r="D78">
         <v>232</v>
@@ -22175,10 +22175,10 @@
       </c>
       <c r="P78">
         <f>SUM(C59:C70)</f>
-        <v>319.13329224348763</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-27524.386910216046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1996</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>-1508.10679483237</v>
+        <v>4226.6656462845003</v>
       </c>
       <c r="D79">
         <v>248</v>
@@ -22217,10 +22217,10 @@
       </c>
       <c r="P79">
         <f>SUM(C71:C82)</f>
-        <v>497.52806951224784</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6725.4433880919514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1996</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>1618.7620141324201</v>
+        <v>1889.06118491908</v>
       </c>
       <c r="D80">
         <v>240</v>
@@ -22259,10 +22259,10 @@
       </c>
       <c r="P80">
         <f>SUM(C83:C94)</f>
-        <v>-1783.6462504783717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-2341.92565167054</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1996</v>
       </c>
@@ -22270,7 +22270,7 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <v>1454.8773819667299</v>
+        <v>-126.592810402704</v>
       </c>
       <c r="D81">
         <v>248</v>
@@ -22301,10 +22301,10 @@
       </c>
       <c r="P81">
         <f>SUM(C95:C106)</f>
-        <v>-5977.3692603930494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-40833.148976783632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1996</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <v>2458.95769411842</v>
+        <v>-5764.3171929989603</v>
       </c>
       <c r="D82">
         <v>240</v>
@@ -22343,10 +22343,10 @@
       </c>
       <c r="P82">
         <f>SUM(C107:C118)</f>
-        <v>-1669.0956155050335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+        <v>6353.6975134340501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1996</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>7</v>
       </c>
       <c r="C83">
-        <v>3212.5524497419601</v>
+        <v>-6783.0142984332297</v>
       </c>
       <c r="D83">
         <v>248</v>
@@ -22385,10 +22385,10 @@
       </c>
       <c r="P83">
         <f>SUM(C119:C130)</f>
-        <v>-9785.8183357359194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-10789.349063644901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1996</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>3068.1411496639098</v>
+        <v>-2454.86400281448</v>
       </c>
       <c r="D84">
         <v>248</v>
@@ -22427,10 +22427,10 @@
       </c>
       <c r="P84">
         <f>SUM(C131:C142)</f>
-        <v>-4770.6096438563854</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-8428.9274080731411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1996</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>1742.0195539777201</v>
+        <v>768.84616429085304</v>
       </c>
       <c r="D85">
         <v>240</v>
@@ -22469,10 +22469,10 @@
       </c>
       <c r="P85">
         <f>SUM(C143:C154)</f>
-        <v>1568.048769593559</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-9920.7537026390964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1996</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>-1760.7304414535899</v>
+        <v>-245.04954754176501</v>
       </c>
       <c r="D86">
         <v>248</v>
@@ -22511,10 +22511,10 @@
       </c>
       <c r="P86">
         <f>SUM(C155:C166)</f>
-        <v>-7926.4210609014171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-27423.787270844852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1996</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>415.89707397900003</v>
+        <v>-2621.22845737233</v>
       </c>
       <c r="D87">
         <v>240</v>
@@ -22553,10 +22553,10 @@
       </c>
       <c r="P87">
         <f>SUM(C167:C178)</f>
-        <v>-2905.0265049397217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+        <v>12387.526103766249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1996</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>-4136.75323408445</v>
+        <v>-2085.8296945493398</v>
       </c>
       <c r="D88">
         <v>248</v>
@@ -22595,10 +22595,10 @@
       </c>
       <c r="P88">
         <f>SUM(C179:C190)</f>
-        <v>-7154.9561068895609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-9044.1746765265525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1997</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>-3058.6728730423501</v>
+        <v>3819.3724678786102</v>
       </c>
       <c r="D89">
         <v>248</v>
@@ -22637,10 +22637,10 @@
       </c>
       <c r="P89">
         <f>SUM(C191:C202)</f>
-        <v>-10158.108615054112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-16646.915519748291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1997</v>
       </c>
@@ -22648,7 +22648,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>-2340.8178907329302</v>
+        <v>3086.8604761168499</v>
       </c>
       <c r="D90">
         <v>224</v>
@@ -22675,7 +22675,7 @@
         <v>62.153374233128829</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1997</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>-3745.9044179471598</v>
+        <v>11144.721403924101</v>
       </c>
       <c r="D91">
         <v>248</v>
@@ -22713,7 +22713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1997</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>-1048.67964956486</v>
+        <v>4004.2318248134302</v>
       </c>
       <c r="D92">
         <v>240</v>
@@ -22752,10 +22752,10 @@
       </c>
       <c r="P92">
         <f>SUM(C17:C28)</f>
-        <v>-11412.293673001526</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-14784.493610601823</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1997</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>2522.4953743383398</v>
+        <v>-2925.0246870711599</v>
       </c>
       <c r="D93">
         <v>248</v>
@@ -22794,10 +22794,10 @@
       </c>
       <c r="P93">
         <f>SUM(C29:C40)</f>
-        <v>3131.5968187615595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-33442.797652540765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1997</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>3346.80665464604</v>
+        <v>-8050.9473009120802</v>
       </c>
       <c r="D94">
         <v>240</v>
@@ -22836,13 +22836,13 @@
       </c>
       <c r="P94">
         <f>SUM(C41:C52)</f>
-        <v>-9279.6561126068191</v>
+        <v>-24461.009715613236</v>
       </c>
       <c r="Q94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1997</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>7</v>
       </c>
       <c r="C95">
-        <v>3830.3658938989802</v>
+        <v>-5667.9095564961999</v>
       </c>
       <c r="D95">
         <v>248</v>
@@ -22881,10 +22881,10 @@
       </c>
       <c r="P95">
         <f>SUM(C53:C64)</f>
-        <v>-3459.2269830956056</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-14774.879399351055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1997</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>2016.8661320216099</v>
+        <v>-4264.2151759635599</v>
       </c>
       <c r="D96">
         <v>248</v>
@@ -22923,10 +22923,10 @@
       </c>
       <c r="P96">
         <f>SUM(C65:C76)</f>
-        <v>303.63148500215766</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-12284.108437745303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1997</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>2103.6196961835199</v>
+        <v>-10020.001272010901</v>
       </c>
       <c r="D97">
         <v>240</v>
@@ -22965,10 +22965,10 @@
       </c>
       <c r="P97">
         <f>SUM(C77:C88)</f>
-        <v>2978.3271571826663</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-3606.4327157710459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>-1218.6736655777199</v>
+        <v>-3722.8219868947599</v>
       </c>
       <c r="D98">
         <v>248</v>
@@ -23007,10 +23007,10 @@
       </c>
       <c r="P98">
         <f>SUM(C89:C100)</f>
-        <v>-6719.890757071691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-19341.742764897564</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1997</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>-3938.5797851157199</v>
+        <v>-4645.13563368839</v>
       </c>
       <c r="D99">
         <v>240</v>
@@ -23049,10 +23049,10 @@
       </c>
       <c r="P99">
         <f>SUM(C101:C112)</f>
-        <v>-3420.2025468097836</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-16523.775263418054</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1997</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>-5188.7162261794401</v>
+        <v>-2100.8733245935</v>
       </c>
       <c r="D100">
         <v>248</v>
@@ -23091,10 +23091,10 @@
       </c>
       <c r="P100">
         <f>SUM(C113:C124)</f>
-        <v>-7853.1853713025193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2704.6580610046531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1998</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>-5162.6747640436797</v>
+        <v>2841.1672271184202</v>
       </c>
       <c r="D101">
         <v>248</v>
@@ -23133,10 +23133,10 @@
       </c>
       <c r="P101">
         <f>SUM(C125:C136)</f>
-        <v>-5381.0154888472644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-14987.313651187947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1998</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>-3820.1334430158699</v>
+        <v>-1030.2526030584099</v>
       </c>
       <c r="D102">
         <v>224</v>
@@ -23175,10 +23175,10 @@
       </c>
       <c r="P102">
         <f>SUM(C137:C148)</f>
-        <v>-436.67561864964046</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+        <v>5987.6532373964401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1998</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>-1331.0866164869799</v>
+        <v>-2561.01860943774</v>
       </c>
       <c r="D103">
         <v>248</v>
@@ -23217,10 +23217,10 @@
       </c>
       <c r="P103">
         <f>SUM(C149:C160)</f>
-        <v>-6115.3654365009124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-45519.153781099827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1998</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>-1076.85935894663</v>
+        <v>4921.9774756592496</v>
       </c>
       <c r="D104">
         <v>240</v>
@@ -23259,10 +23259,10 @@
       </c>
       <c r="P104">
         <f>SUM(C161:C172)</f>
-        <v>-1168.8869759119166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2175.1477211712645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1998</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>3636.46859171709</v>
+        <v>-9197.4641684033195</v>
       </c>
       <c r="D105">
         <v>248</v>
@@ -23301,10 +23301,10 @@
       </c>
       <c r="P105">
         <f>SUM(C173:C184)</f>
-        <v>-4607.2586103104832</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+        <v>7404.3611764384768</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1998</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>6</v>
       </c>
       <c r="C106">
-        <v>4172.0342851517898</v>
+        <v>-5386.6013490145297</v>
       </c>
       <c r="D106">
         <v>240</v>
@@ -23343,10 +23343,10 @@
       </c>
       <c r="P106">
         <f>SUM(C185:C196)</f>
-        <v>-12800.120229756478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-21164.425982618239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1998</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>7</v>
       </c>
       <c r="C107">
-        <v>3085.55323077606</v>
+        <v>1808.8441380173899</v>
       </c>
       <c r="D107">
         <v>248</v>
@@ -23385,10 +23385,10 @@
       </c>
       <c r="P107">
         <f>SUM(C197:C208)</f>
-        <v>-10873.290594453723</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-11079.844352797847</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1998</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>1362.7780696386301</v>
+        <v>-2218.3709986368199</v>
       </c>
       <c r="D108">
         <v>248</v>
@@ -23423,7 +23423,7 @@
         <v>121.26927480916029</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1998</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>273.85340566975799</v>
+        <v>-6137.4359592968103</v>
       </c>
       <c r="D109">
         <v>240</v>
@@ -23461,7 +23461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1998</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>1351.7047683432299</v>
+        <v>-1248.8648472585101</v>
       </c>
       <c r="D110">
         <v>248</v>
@@ -23500,13 +23500,13 @@
       </c>
       <c r="P110">
         <f>SUM(C2:C6)</f>
-        <v>-11131.945401655161</v>
+        <v>6994.4311422607607</v>
       </c>
       <c r="Q110" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1998</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>-1225.77580789274</v>
+        <v>2123.5776914806702</v>
       </c>
       <c r="D111">
         <v>240</v>
@@ -23545,10 +23545,10 @@
       </c>
       <c r="P111">
         <f>SUM(C14:C18)</f>
-        <v>-17593.173202014164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+        <v>26191.71031843315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1998</v>
       </c>
@@ -23556,7 +23556,7 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>-4686.0649077204398</v>
+        <v>-439.33326058764499</v>
       </c>
       <c r="D112">
         <v>248</v>
@@ -23587,10 +23587,10 @@
       </c>
       <c r="P112">
         <f>SUM(C26:C30)</f>
-        <v>-17091.284643806848</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-2895.9524358634121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1999</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>-4514.4673269186897</v>
+        <v>8887.5960040494101</v>
       </c>
       <c r="D113">
         <v>248</v>
@@ -23629,10 +23629,10 @@
       </c>
       <c r="P113">
         <f>SUM(C38:C42)</f>
-        <v>-14063.847523111581</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1038.5561179475681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1999</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>-633.16365825634898</v>
+        <v>5857.9202489191202</v>
       </c>
       <c r="D114">
         <v>224</v>
@@ -23671,10 +23671,10 @@
       </c>
       <c r="P114">
         <f>SUM(C50:C54)</f>
-        <v>-16693.869062219208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9851.2536094338993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1999</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>-2976.0434037120799</v>
+        <v>5761.6939268627302</v>
       </c>
       <c r="D115">
         <v>248</v>
@@ -23713,10 +23713,10 @@
       </c>
       <c r="P115">
         <f>SUM(C62:C66)</f>
-        <v>-14467.526111668431</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-6070.5166818671232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1999</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>3169.2520659024999</v>
+        <v>-142.144724422476</v>
       </c>
       <c r="D116">
         <v>240</v>
@@ -23755,10 +23755,10 @@
       </c>
       <c r="P116">
         <f>SUM(C74:C78)</f>
-        <v>-10093.346926555503</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+        <v>22365.00603351785</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1999</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>9.1635072648265297</v>
+        <v>-3107.5235834760101</v>
       </c>
       <c r="D117">
         <v>248</v>
@@ -23797,10 +23797,10 @@
       </c>
       <c r="P117">
         <f>SUM(C86:C90)</f>
-        <v>-10881.07736533432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1954.1252445320251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1999</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>6</v>
       </c>
       <c r="C118">
-        <v>3114.1144414002601</v>
+        <v>-4792.2611222169999</v>
       </c>
       <c r="D118">
         <v>240</v>
@@ -23839,10 +23839,10 @@
       </c>
       <c r="P118">
         <f>SUM(C98:C102)</f>
-        <v>-19328.777883932431</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-8657.9163211166415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1999</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>3613.4818768242299</v>
+        <v>-1788.9892357266499</v>
       </c>
       <c r="D119">
         <v>248</v>
@@ -23881,10 +23881,10 @@
       </c>
       <c r="P119">
         <f>SUM(C110:C114)</f>
-        <v>-9707.7669324449889</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15180.895836603046</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1999</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>414.904249708333</v>
+        <v>-7784.9017950481302</v>
       </c>
       <c r="D120">
         <v>248</v>
@@ -23923,10 +23923,10 @@
       </c>
       <c r="P120">
         <f>SUM(C122:C126)</f>
-        <v>-14593.073996261999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+        <v>11892.875872577701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1999</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>-1689.6320207527301</v>
+        <v>-6695.7402668024497</v>
       </c>
       <c r="D121">
         <v>240</v>
@@ -23965,10 +23965,10 @@
       </c>
       <c r="P121">
         <f>SUM(C134:C138)</f>
-        <v>-19655.096317213371</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+        <v>968.62460845969872</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1999</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>-2130.2726006204498</v>
+        <v>-4689.6388420154399</v>
       </c>
       <c r="D122">
         <v>248</v>
@@ -24007,10 +24007,10 @@
       </c>
       <c r="P122">
         <f>SUM(C146:C150)</f>
-        <v>-9395.0418573466141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+        <v>28107.144628143607</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1999</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>-1255.5591842953199</v>
+        <v>6161.1730951406698</v>
       </c>
       <c r="D123">
         <v>240</v>
@@ -24028,10 +24028,10 @@
       </c>
       <c r="P123">
         <f>SUM(C158:C162)</f>
-        <v>-18813.067817344971</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3550.7161512564289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1999</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>-4974.9633178470503</v>
+        <v>5037.4743557408801</v>
       </c>
       <c r="D124">
         <v>248</v>
@@ -24049,10 +24049,10 @@
       </c>
       <c r="P124">
         <f>SUM(C170:C174)</f>
-        <v>-12799.735506017925</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17821.404809699416</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2000</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>-723.65935042333001</v>
+        <v>1105.1592675007</v>
       </c>
       <c r="D125">
         <v>248</v>
@@ -24070,10 +24070,10 @@
       </c>
       <c r="P125">
         <f>SUM(C182:C186)</f>
-        <v>-14558.708680204893</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+        <v>7586.3016673570928</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2000</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>-5508.6195430758498</v>
+        <v>4278.7079962108901</v>
       </c>
       <c r="D126">
         <v>232</v>
@@ -24091,10 +24091,10 @@
       </c>
       <c r="P126">
         <f>SUM(C194:C198)</f>
-        <v>-19236.067165870511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9711.4455545988803</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2000</v>
       </c>
@@ -24102,13 +24102,13 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>-3248.90439968601</v>
+        <v>2250.0652945524098</v>
       </c>
       <c r="D127">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2000</v>
       </c>
@@ -24116,13 +24116,13 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>-215.357205337685</v>
+        <v>1991.2450080641299</v>
       </c>
       <c r="D128">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2000</v>
       </c>
@@ -24130,13 +24130,13 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <v>1762.10378023731</v>
+        <v>-728.36080138552904</v>
       </c>
       <c r="D129">
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2000</v>
       </c>
@@ -24144,13 +24144,13 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>4170.6593795326298</v>
+        <v>-9925.5431398763794</v>
       </c>
       <c r="D130">
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2000</v>
       </c>
@@ -24158,13 +24158,13 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>4741.65957422871</v>
+        <v>3710.5037188523502</v>
       </c>
       <c r="D131">
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2000</v>
       </c>
@@ -24172,13 +24172,13 @@
         <v>8</v>
       </c>
       <c r="C132">
-        <v>3160.5464953401502</v>
+        <v>-6459.5030036773196</v>
       </c>
       <c r="D132">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2000</v>
       </c>
@@ -24186,13 +24186,13 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>1392.0268887704599</v>
+        <v>-4334.1776145787999</v>
       </c>
       <c r="D133">
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2000</v>
       </c>
@@ -24200,13 +24200,13 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>-2170.5949435340499</v>
+        <v>-7731.5718290141804</v>
       </c>
       <c r="D134">
         <v>248</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2000</v>
       </c>
@@ -24214,13 +24214,13 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>-4926.31751007206</v>
+        <v>3674.8030065749499</v>
       </c>
       <c r="D135">
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2000</v>
       </c>
@@ -24228,13 +24228,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>-3814.5586548275401</v>
+        <v>-2818.6415544111701</v>
       </c>
       <c r="D136">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2001</v>
       </c>
@@ -24242,13 +24242,13 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>-5167.1041305226499</v>
+        <v>2987.4397910825401</v>
       </c>
       <c r="D137">
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2001</v>
       </c>
@@ -24256,13 +24256,13 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>-3576.5210782570698</v>
+        <v>4856.5951942275597</v>
       </c>
       <c r="D138">
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2001</v>
       </c>
@@ -24270,13 +24270,13 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>-129.51978202384001</v>
+        <v>-209.09877307988901</v>
       </c>
       <c r="D139">
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2001</v>
       </c>
@@ -24284,13 +24284,13 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>-813.00924650472405</v>
+        <v>-3858.7640924011798</v>
       </c>
       <c r="D140">
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2001</v>
       </c>
@@ -24298,13 +24298,13 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>4686.9038804012898</v>
+        <v>1309.9317211698101</v>
       </c>
       <c r="D141">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2001</v>
       </c>
@@ -24312,13 +24312,13 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>1845.8788631449399</v>
+        <v>443.55602718218699</v>
       </c>
       <c r="D142">
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2001</v>
       </c>
@@ -24326,13 +24326,13 @@
         <v>7</v>
       </c>
       <c r="C143">
-        <v>4146.9858045107703</v>
+        <v>-10046.655490114499</v>
       </c>
       <c r="D143">
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2001</v>
       </c>
@@ -24340,13 +24340,13 @@
         <v>8</v>
       </c>
       <c r="C144">
-        <v>3510.9969313275001</v>
+        <v>-2826.6415594698501</v>
       </c>
       <c r="D144">
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2001</v>
       </c>
@@ -24354,13 +24354,13 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>-1023.93637329926</v>
+        <v>-7362.5550840781098</v>
       </c>
       <c r="D145">
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2001</v>
       </c>
@@ -24368,13 +24368,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>749.16500843840595</v>
+        <v>2019.7509585006601</v>
       </c>
       <c r="D146">
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2001</v>
       </c>
@@ -24382,13 +24382,13 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>-562.82926947186104</v>
+        <v>8818.8173896882909</v>
       </c>
       <c r="D147">
         <v>240</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2001</v>
       </c>
@@ -24396,13 +24396,13 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>-4103.6862263931398</v>
+        <v>9855.2771546889198</v>
       </c>
       <c r="D148">
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2002</v>
       </c>
@@ -24410,13 +24410,13 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>-2754.27190669437</v>
+        <v>7467.8516782673196</v>
       </c>
       <c r="D149">
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2002</v>
       </c>
@@ -24424,13 +24424,13 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>-2723.4194632256499</v>
+        <v>-54.552553001580002</v>
       </c>
       <c r="D150">
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2002</v>
       </c>
@@ -24438,13 +24438,13 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>-2049.55215105256</v>
+        <v>4145.5531041858203</v>
       </c>
       <c r="D151">
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2002</v>
       </c>
@@ -24452,13 +24452,13 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>-144.33535675224701</v>
+        <v>-291.15734520839902</v>
       </c>
       <c r="D152">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2002</v>
       </c>
@@ -24466,13 +24466,13 @@
         <v>5</v>
       </c>
       <c r="C153">
-        <v>2280.2576230546601</v>
+        <v>-9529.4823484577701</v>
       </c>
       <c r="D153">
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2002</v>
       </c>
@@ -24480,13 +24480,13 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>4242.6741491513103</v>
+        <v>-12116.959607639899</v>
       </c>
       <c r="D154">
         <v>240</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2002</v>
       </c>
@@ -24494,13 +24494,13 @@
         <v>7</v>
       </c>
       <c r="C155">
-        <v>3575.60400919635</v>
+        <v>-9770.8894413167309</v>
       </c>
       <c r="D155">
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2002</v>
       </c>
@@ -24508,13 +24508,13 @@
         <v>8</v>
       </c>
       <c r="C156">
-        <v>1269.8387517194101</v>
+        <v>-14162.7231176235</v>
       </c>
       <c r="D156">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2002</v>
       </c>
@@ -24522,13 +24522,13 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>675.01207380590301</v>
+        <v>-4844.0135489507002</v>
       </c>
       <c r="D157">
         <v>240</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2002</v>
       </c>
@@ -24536,13 +24536,13 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>-2931.6738140316502</v>
+        <v>-8729.4411230410606</v>
       </c>
       <c r="D158">
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2002</v>
       </c>
@@ -24550,13 +24550,13 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>-4170.2025133777497</v>
+        <v>-1964.61554103157</v>
       </c>
       <c r="D159">
         <v>240</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2002</v>
       </c>
@@ -24564,13 +24564,13 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>-3385.29683829432</v>
+        <v>4331.2760627182397</v>
       </c>
       <c r="D160">
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2003</v>
       </c>
@@ -24578,13 +24578,13 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>-3819.3698792724799</v>
+        <v>2442.6363497727798</v>
       </c>
       <c r="D161">
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2003</v>
       </c>
@@ -24592,13 +24592,13 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>-4506.5247723687698</v>
+        <v>7470.8604028380396</v>
       </c>
       <c r="D162">
         <v>224</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2003</v>
       </c>
@@ -24606,13 +24606,13 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>-1993.49846492595</v>
+        <v>-53.259701249079498</v>
       </c>
       <c r="D163">
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2003</v>
       </c>
@@ -24620,13 +24620,13 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>1914.60998136848</v>
+        <v>-705.37178313434902</v>
       </c>
       <c r="D164">
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2003</v>
       </c>
@@ -24634,13 +24634,13 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>2693.4060348411899</v>
+        <v>-2362.6225620506202</v>
       </c>
       <c r="D165">
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2003</v>
       </c>
@@ -24648,13 +24648,13 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>2751.6743704381702</v>
+        <v>924.37673222369699</v>
       </c>
       <c r="D166">
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2003</v>
       </c>
@@ -24662,13 +24662,13 @@
         <v>7</v>
       </c>
       <c r="C167">
-        <v>2159.5971766265202</v>
+        <v>55.771095051620797</v>
       </c>
       <c r="D167">
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2003</v>
       </c>
@@ -24676,13 +24676,13 @@
         <v>8</v>
       </c>
       <c r="C168">
-        <v>1423.18490296504</v>
+        <v>-7364.2879528432004</v>
       </c>
       <c r="D168">
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2003</v>
       </c>
@@ -24690,13 +24690,13 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>3222.6332269436198</v>
+        <v>258.643654727475</v>
       </c>
       <c r="D169">
         <v>240</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2003</v>
       </c>
@@ -24704,13 +24704,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>210.84995691724501</v>
+        <v>-1951.1324754535699</v>
       </c>
       <c r="D170">
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2003</v>
       </c>
@@ -24718,13 +24718,13 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>-1472.59584421355</v>
+        <v>1657.44688440206</v>
       </c>
       <c r="D171">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2003</v>
       </c>
@@ -24732,13 +24732,13 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>-3752.8536652314301</v>
+        <v>1802.0870768864099</v>
       </c>
       <c r="D172">
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -24746,13 +24746,13 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>-4970.7630420967898</v>
+        <v>15474.867559128599</v>
       </c>
       <c r="D173">
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -24760,13 +24760,13 @@
         <v>2</v>
       </c>
       <c r="C174">
-        <v>-2814.3729113934</v>
+        <v>838.13576473592002</v>
       </c>
       <c r="D174">
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -24774,13 +24774,13 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>-2575.9537528774499</v>
+        <v>552.57671482412502</v>
       </c>
       <c r="D175">
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -24788,13 +24788,13 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>-987.35636136498795</v>
+        <v>6168.7608645677001</v>
       </c>
       <c r="D176">
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -24802,13 +24802,13 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>4097.1940748766201</v>
+        <v>4518.4058807466899</v>
       </c>
       <c r="D177">
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2004</v>
       </c>
@@ -24816,13 +24816,13 @@
         <v>6</v>
       </c>
       <c r="C178">
-        <v>2555.4097339088398</v>
+        <v>-9623.7489630075797</v>
       </c>
       <c r="D178">
         <v>240</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2004</v>
       </c>
@@ -24830,13 +24830,13 @@
         <v>7</v>
       </c>
       <c r="C179">
-        <v>3477.2423058074901</v>
+        <v>-3302.4055279501799</v>
       </c>
       <c r="D179">
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2004</v>
       </c>
@@ -24844,13 +24844,13 @@
         <v>8</v>
       </c>
       <c r="C180">
-        <v>2003.2728337671299</v>
+        <v>-1900.25238465957</v>
       </c>
       <c r="D180">
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2004</v>
       </c>
@@ -24858,13 +24858,13 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>485.39166892716503</v>
+        <v>-8330.0973286254994</v>
       </c>
       <c r="D181">
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2004</v>
       </c>
@@ -24872,13 +24872,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>-508.226507150092</v>
+        <v>-3939.6662800077802</v>
       </c>
       <c r="D182">
         <v>248</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2004</v>
       </c>
@@ -24886,13 +24886,13 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>-2471.9411235073599</v>
+        <v>462.97539164049402</v>
       </c>
       <c r="D183">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2004</v>
       </c>
@@ -24900,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>-2897.15552920765</v>
+        <v>6484.80948504556</v>
       </c>
       <c r="D184">
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -24914,13 +24914,13 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>-3384.07486497425</v>
+        <v>-3579.9914579968799</v>
       </c>
       <c r="D185">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -24928,13 +24928,13 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>-5297.3106553655398</v>
+        <v>8158.1745286756995</v>
       </c>
       <c r="D186">
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -24942,13 +24942,13 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>-597.958314344408</v>
+        <v>1206.9153152782501</v>
       </c>
       <c r="D187">
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -24956,13 +24956,13 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>-2191.5195946884101</v>
+        <v>-2997.9366328388101</v>
       </c>
       <c r="D188">
         <v>240</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -24970,13 +24970,13 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>4402.5876723541696</v>
+        <v>1415.93872045853</v>
       </c>
       <c r="D189">
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -24984,13 +24984,13 @@
         <v>6</v>
       </c>
       <c r="C190">
-        <v>-175.263998507803</v>
+        <v>-2722.6385055463702</v>
       </c>
       <c r="D190">
         <v>240</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -24998,13 +24998,13 @@
         <v>7</v>
       </c>
       <c r="C191">
-        <v>3422.7159763537702</v>
+        <v>-5441.9546907040503</v>
       </c>
       <c r="D191">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -25012,13 +25012,13 @@
         <v>8</v>
       </c>
       <c r="C192">
-        <v>1579.4327989349499</v>
+        <v>-8556.7567386102692</v>
       </c>
       <c r="D192">
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -25026,13 +25026,13 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>-430.48390471661401</v>
+        <v>-5205.6721955789799</v>
       </c>
       <c r="D193">
         <v>240</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -25040,13 +25040,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>-2747.6278921817102</v>
+        <v>2193.7816915061298</v>
       </c>
       <c r="D194">
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -25054,13 +25054,13 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>-3484.2690908059599</v>
+        <v>-3223.4881213538201</v>
       </c>
       <c r="D195">
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -25068,13 +25068,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>-3896.3483618146702</v>
+        <v>-2410.79789590767</v>
       </c>
       <c r="D196">
         <v>248</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2006</v>
       </c>
@@ -25082,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>-4722.3395678275001</v>
+        <v>8473.4644104472009</v>
       </c>
       <c r="D197">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2006</v>
       </c>
@@ -25096,13 +25096,13 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>-4385.4822532406697</v>
+        <v>4678.4854699070402</v>
       </c>
       <c r="D198">
         <v>224</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2006</v>
       </c>
@@ -25110,13 +25110,13 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>-2815.4421931224001</v>
+        <v>3957.6907294258199</v>
       </c>
       <c r="D199">
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2006</v>
       </c>
@@ -25124,13 +25124,13 @@
         <v>4</v>
       </c>
       <c r="C200">
-        <v>1864.0545446358201</v>
+        <v>-3136.9559202782898</v>
       </c>
       <c r="D200">
         <v>240</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2006</v>
       </c>
@@ -25138,13 +25138,13 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>2845.6829243646698</v>
+        <v>-2486.9440843997099</v>
       </c>
       <c r="D201">
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2006</v>
       </c>
@@ -25152,13 +25152,13 @@
         <v>6</v>
       </c>
       <c r="C202">
-        <v>2611.9984043661998</v>
+        <v>-5487.7681742016903</v>
       </c>
       <c r="D202">
         <v>240</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2006</v>
       </c>
@@ -25166,13 +25166,13 @@
         <v>7</v>
       </c>
       <c r="C203">
-        <v>3184.44940124398</v>
+        <v>-2199.9151374221701</v>
       </c>
       <c r="D203">
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2006</v>
       </c>
@@ -25180,13 +25180,13 @@
         <v>8</v>
       </c>
       <c r="C204">
-        <v>2305.0772963771301</v>
+        <v>-4754.1963408046404</v>
       </c>
       <c r="D204">
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2006</v>
       </c>
@@ -25194,13 +25194,13 @@
         <v>9</v>
       </c>
       <c r="C205">
-        <v>-506.77521457350502</v>
+        <v>-4033.33566150859</v>
       </c>
       <c r="D205">
         <v>240</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -25208,13 +25208,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>-3296.5578721454199</v>
+        <v>-2246.58327778696</v>
       </c>
       <c r="D206">
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -25222,13 +25222,13 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>-2673.1694980096399</v>
+        <v>-3173.47003614297</v>
       </c>
       <c r="D207">
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -25236,13 +25236,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>-5284.7865665223899</v>
+        <v>-670.316330032888</v>
       </c>
       <c r="D208">
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2007</v>
       </c>
@@ -25250,13 +25250,13 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>-6019.13649241644</v>
+        <v>-84.352849761740302</v>
       </c>
       <c r="D209">
         <v>248</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2007</v>
       </c>
@@ -25264,13 +25264,13 @@
         <v>2</v>
       </c>
       <c r="C210">
-        <v>-6188.67233943262</v>
+        <v>5736.5168059982198</v>
       </c>
       <c r="D210">
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2007</v>
       </c>
@@ -25278,13 +25278,13 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>-2256.66098514335</v>
+        <v>-543.57877145959105</v>
       </c>
       <c r="D211">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2007</v>
       </c>
@@ -25292,13 +25292,13 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>-1451.8998784590201</v>
+        <v>722.86029257825601</v>
       </c>
       <c r="D212">
         <v>240</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2007</v>
       </c>
@@ -25306,13 +25306,13 @@
         <v>5</v>
       </c>
       <c r="C213">
-        <v>-703.87997753785703</v>
+        <v>3824.8349301938001</v>
       </c>
       <c r="D213">
         <v>248</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2007</v>
       </c>
@@ -25320,13 +25320,13 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>4858.6548172660396</v>
+        <v>-2207.4285361731299</v>
       </c>
       <c r="D214">
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2007</v>
       </c>
@@ -25334,13 +25334,13 @@
         <v>7</v>
       </c>
       <c r="C215">
-        <v>6064.95639575735</v>
+        <v>-11307.580886460701</v>
       </c>
       <c r="D215">
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2007</v>
       </c>
@@ -25348,13 +25348,13 @@
         <v>8</v>
       </c>
       <c r="C216">
-        <v>748.09604296407497</v>
+        <v>-1417.6746353850001</v>
       </c>
       <c r="D216">
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2007</v>
       </c>
@@ -25362,13 +25362,13 @@
         <v>9</v>
       </c>
       <c r="C217">
-        <v>928.17061453148801</v>
+        <v>627.80521544037003</v>
       </c>
       <c r="D217">
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2007</v>
       </c>
@@ -25376,13 +25376,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>-3154.2850017291598</v>
+        <v>-4406.3220884848497</v>
       </c>
       <c r="D218">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2007</v>
       </c>
@@ -25390,13 +25390,13 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>-4417.0985167509198</v>
+        <v>4565.3721424530404</v>
       </c>
       <c r="D219">
         <v>240</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2007</v>
       </c>
@@ -25404,13 +25404,13 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>-3572.9317492811701</v>
+        <v>-2989.1485833301699</v>
       </c>
       <c r="D220">
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2008</v>
       </c>
@@ -25418,13 +25418,13 @@
         <v>1</v>
       </c>
       <c r="C221">
-        <v>-3681.4501760099602</v>
+        <v>3047.3710089668298</v>
       </c>
       <c r="D221">
         <v>248</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2008</v>
       </c>
@@ -25432,13 +25432,13 @@
         <v>2</v>
       </c>
       <c r="C222">
-        <v>-2294.1573733105902</v>
+        <v>6144.3929701422103</v>
       </c>
       <c r="D222">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2008</v>
       </c>
@@ -25446,13 +25446,13 @@
         <v>3</v>
       </c>
       <c r="C223">
-        <v>-2932.2845631841801</v>
+        <v>5185.0540756284299</v>
       </c>
       <c r="D223">
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2008</v>
       </c>
@@ -25460,13 +25460,13 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>1185.45287174382</v>
+        <v>-1013.06405697025</v>
       </c>
       <c r="D224">
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2008</v>
       </c>
@@ -25474,13 +25474,13 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>1550.1076907809299</v>
+        <v>-2486.6998638656701</v>
       </c>
       <c r="D225">
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2008</v>
       </c>
@@ -25488,13 +25488,13 @@
         <v>6</v>
       </c>
       <c r="C226">
-        <v>3091.5099571853402</v>
+        <v>-7192.93414186671</v>
       </c>
       <c r="D226">
         <v>240</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2008</v>
       </c>
@@ -25502,13 +25502,13 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <v>2408.4789806158001</v>
+        <v>-7643.6344195301499</v>
       </c>
       <c r="D227">
         <v>248</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2008</v>
       </c>
@@ -25516,13 +25516,13 @@
         <v>8</v>
       </c>
       <c r="C228">
-        <v>4427.3307297282399</v>
+        <v>-3690.32652149264</v>
       </c>
       <c r="D228">
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2008</v>
       </c>
@@ -25530,13 +25530,13 @@
         <v>9</v>
       </c>
       <c r="C229">
-        <v>-798.804638906028</v>
+        <v>3055.6370235702002</v>
       </c>
       <c r="D229">
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2008</v>
       </c>
@@ -25544,13 +25544,13 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>-2972.3012888931598</v>
+        <v>-465.77004959628101</v>
       </c>
       <c r="D230">
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2008</v>
       </c>
@@ -25558,13 +25558,13 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>-1781.5023551284401</v>
+        <v>4777.1249294740801</v>
       </c>
       <c r="D231">
         <v>240</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2008</v>
       </c>
@@ -25572,13 +25572,13 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>-3076.54282436426</v>
+        <v>6190.9631815497796</v>
       </c>
       <c r="D232">
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2009</v>
       </c>
@@ -25586,13 +25586,13 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>-5856.0920228690602</v>
+        <v>9570.7278994722692</v>
       </c>
       <c r="D233">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2009</v>
       </c>
@@ -25600,13 +25600,13 @@
         <v>2</v>
       </c>
       <c r="C234">
-        <v>-3249.05699792839</v>
+        <v>-778.74695101942302</v>
       </c>
       <c r="D234">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2009</v>
       </c>
@@ -25614,13 +25614,13 @@
         <v>3</v>
       </c>
       <c r="C235">
-        <v>-3595.9183908321802</v>
+        <v>7701.2250676496296</v>
       </c>
       <c r="D235">
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2009</v>
       </c>
@@ -25628,13 +25628,13 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>1866.19312763837</v>
+        <v>4309.9055969543697</v>
       </c>
       <c r="D236">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2009</v>
       </c>
@@ -25642,13 +25642,13 @@
         <v>5</v>
       </c>
       <c r="C237">
-        <v>1013.85497259638</v>
+        <v>12456.5815959553</v>
       </c>
       <c r="D237">
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2009</v>
       </c>
@@ -25656,13 +25656,13 @@
         <v>6</v>
       </c>
       <c r="C238">
-        <v>1389.8122812341001</v>
+        <v>-10103.5365267547</v>
       </c>
       <c r="D238">
         <v>240</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2009</v>
       </c>
@@ -25670,13 +25670,13 @@
         <v>7</v>
       </c>
       <c r="C239">
-        <v>3863.73850562294</v>
+        <v>-13648.524608047601</v>
       </c>
       <c r="D239">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2009</v>
       </c>
@@ -25684,13 +25684,13 @@
         <v>8</v>
       </c>
       <c r="C240">
-        <v>1511.6185464786699</v>
+        <v>-2918.6053858949199</v>
       </c>
       <c r="D240">
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2009</v>
       </c>
@@ -25698,13 +25698,13 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>-463.55109065589897</v>
+        <v>2373.2166198326499</v>
       </c>
       <c r="D241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2009</v>
       </c>
@@ -25712,13 +25712,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>-574.36068116898605</v>
+        <v>7325.3442639518398</v>
       </c>
       <c r="D242">
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2009</v>
       </c>
@@ -25726,13 +25726,13 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>-4431.9900798969702</v>
+        <v>-3241.5830996037198</v>
       </c>
       <c r="D243">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2009</v>
       </c>
@@ -25740,13 +25740,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>-5489.1458526430497</v>
+        <v>4035.01569785947</v>
       </c>
       <c r="D244">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2010</v>
       </c>
@@ -25754,13 +25754,13 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>-4014.4887673542898</v>
+        <v>4744.9451499011702</v>
       </c>
       <c r="D245">
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2010</v>
       </c>
@@ -25768,13 +25768,13 @@
         <v>2</v>
       </c>
       <c r="C246">
-        <v>-3047.2176393620598</v>
+        <v>-510.270255902104</v>
       </c>
       <c r="D246">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2010</v>
       </c>
@@ -25782,13 +25782,13 @@
         <v>3</v>
       </c>
       <c r="C247">
-        <v>-2691.03945220491</v>
+        <v>7908.4620875309702</v>
       </c>
       <c r="D247">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2010</v>
       </c>
@@ -25796,13 +25796,13 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>764.74376284703305</v>
+        <v>-601.20851164975795</v>
       </c>
       <c r="D248">
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2010</v>
       </c>
@@ -25810,13 +25810,13 @@
         <v>5</v>
       </c>
       <c r="C249">
-        <v>2850.5702689751602</v>
+        <v>1509.3429497498601</v>
       </c>
       <c r="D249">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2010</v>
       </c>
@@ -25824,13 +25824,13 @@
         <v>6</v>
       </c>
       <c r="C250">
-        <v>4091.6192175711499</v>
+        <v>-2753.78051083638</v>
       </c>
       <c r="D250">
         <v>240</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2010</v>
       </c>
@@ -25838,13 +25838,13 @@
         <v>7</v>
       </c>
       <c r="C251">
-        <v>2684.62359169092</v>
+        <v>-1542.1277660323599</v>
       </c>
       <c r="D251">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2010</v>
       </c>
@@ -25852,13 +25852,13 @@
         <v>8</v>
       </c>
       <c r="C252">
-        <v>4267.7225386271202</v>
+        <v>522.70320523164696</v>
       </c>
       <c r="D252">
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2010</v>
       </c>
@@ -25866,13 +25866,13 @@
         <v>9</v>
       </c>
       <c r="C253">
-        <v>1355.1414932984601</v>
+        <v>70.115497393459506</v>
       </c>
       <c r="D253">
         <v>240</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2010</v>
       </c>
@@ -25880,13 +25880,13 @@
         <v>10</v>
       </c>
       <c r="C254">
-        <v>-2190.9849138813402</v>
+        <v>6831.4791503972701</v>
       </c>
       <c r="D254">
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2010</v>
       </c>
@@ -25894,13 +25894,13 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>-5012.0781527241897</v>
+        <v>4189.3613355202096</v>
       </c>
       <c r="D255">
         <v>240</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2010</v>
       </c>
@@ -25908,13 +25908,13 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>-3975.1595557485098</v>
+        <v>-4816.70609338134</v>
       </c>
       <c r="D256">
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2011</v>
       </c>
@@ -25922,13 +25922,13 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>-5958.1952714258396</v>
+        <v>6409.4775498769604</v>
       </c>
       <c r="D257">
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2011</v>
       </c>
@@ -25936,13 +25936,13 @@
         <v>2</v>
       </c>
       <c r="C258">
-        <v>-3803.7907377708698</v>
+        <v>8038.5334093867104</v>
       </c>
       <c r="D258">
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2011</v>
       </c>
@@ -25950,13 +25950,13 @@
         <v>3</v>
       </c>
       <c r="C259">
-        <v>-1888.03497789836</v>
+        <v>630.55754132509799</v>
       </c>
       <c r="D259">
         <v>248</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2011</v>
       </c>
@@ -25964,13 +25964,13 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>1314.7429240716599</v>
+        <v>1561.79584939199</v>
       </c>
       <c r="D260">
         <v>240</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2011</v>
       </c>
@@ -25978,13 +25978,13 @@
         <v>5</v>
       </c>
       <c r="C261">
-        <v>3675.7215373413501</v>
+        <v>1100.82716001632</v>
       </c>
       <c r="D261">
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2011</v>
       </c>
@@ -25992,13 +25992,13 @@
         <v>6</v>
       </c>
       <c r="C262">
-        <v>4422.8253632955102</v>
+        <v>-1313.4928273641899</v>
       </c>
       <c r="D262">
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2011</v>
       </c>
@@ -26006,13 +26006,13 @@
         <v>7</v>
       </c>
       <c r="C263">
-        <v>4261.2315312916298</v>
+        <v>-3783.9352289110402</v>
       </c>
       <c r="D263">
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2011</v>
       </c>
@@ -26020,13 +26020,13 @@
         <v>8</v>
       </c>
       <c r="C264">
-        <v>88.051618743328902</v>
+        <v>-5118.8104811594803</v>
       </c>
       <c r="D264">
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2011</v>
       </c>
@@ -26034,13 +26034,13 @@
         <v>9</v>
       </c>
       <c r="C265">
-        <v>-429.49137627415098</v>
+        <v>-6656.1024508626297</v>
       </c>
       <c r="D265">
         <v>240</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2011</v>
       </c>
@@ -26048,13 +26048,13 @@
         <v>10</v>
       </c>
       <c r="C266">
-        <v>-991.40379353475601</v>
+        <v>2161.37448502302</v>
       </c>
       <c r="D266">
         <v>248</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2011</v>
       </c>
@@ -26062,13 +26062,13 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>-4993.1389386701803</v>
+        <v>875.76919267237304</v>
       </c>
       <c r="D267">
         <v>240</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2011</v>
       </c>
@@ -26076,13 +26076,13 @@
         <v>12</v>
       </c>
       <c r="C268">
-        <v>-1419.5965419065301</v>
+        <v>7249.1114673686698</v>
       </c>
       <c r="D268">
         <v>248</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2012</v>
       </c>
@@ -26090,13 +26090,13 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>-3615.9267610194302</v>
+        <v>2234.35605386826</v>
       </c>
       <c r="D269">
         <v>248</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -26104,13 +26104,13 @@
         <v>2</v>
       </c>
       <c r="C270">
-        <v>-3573.0081134974998</v>
+        <v>2671.83350527216</v>
       </c>
       <c r="D270">
         <v>232</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2012</v>
       </c>
@@ -26118,13 +26118,13 @@
         <v>3</v>
       </c>
       <c r="C271">
-        <v>-1821.59528174158</v>
+        <v>4012.7029017248101</v>
       </c>
       <c r="D271">
         <v>248</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2012</v>
       </c>
@@ -26132,13 +26132,13 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>233.45507742524001</v>
+        <v>6364.0980861532298</v>
       </c>
       <c r="D272">
         <v>240</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -26146,13 +26146,13 @@
         <v>5</v>
       </c>
       <c r="C273">
-        <v>2620.3224247962999</v>
+        <v>1660.54008995144</v>
       </c>
       <c r="D273">
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2012</v>
       </c>
@@ -26160,13 +26160,13 @@
         <v>6</v>
       </c>
       <c r="C274">
-        <v>2910.5188140857099</v>
+        <v>1425.8168072337701</v>
       </c>
       <c r="D274">
         <v>240</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2012</v>
       </c>
@@ -26174,13 +26174,13 @@
         <v>7</v>
       </c>
       <c r="C275">
-        <v>4510.9532784680296</v>
+        <v>-2114.55530564116</v>
       </c>
       <c r="D275">
         <v>248</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2012</v>
       </c>
@@ -26188,13 +26188,13 @@
         <v>8</v>
       </c>
       <c r="C276">
-        <v>4344.5485558767796</v>
+        <v>-4487.9692843425901</v>
       </c>
       <c r="D276">
         <v>248</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2012</v>
       </c>
@@ -26202,13 +26202,13 @@
         <v>9</v>
       </c>
       <c r="C277">
-        <v>-217.495242138424</v>
+        <v>-6372.88995862301</v>
       </c>
       <c r="D277">
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2012</v>
       </c>
@@ -26216,13 +26216,13 @@
         <v>10</v>
       </c>
       <c r="C278">
-        <v>-757.41356664582304</v>
+        <v>-2524.6569663939299</v>
       </c>
       <c r="D278">
         <v>248</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2012</v>
       </c>
@@ -26230,13 +26230,13 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>-4186.3922206630796</v>
+        <v>-733.82026604420503</v>
       </c>
       <c r="D279">
         <v>240</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2012</v>
       </c>
@@ -26244,13 +26244,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>-4407.1706050071298</v>
+        <v>-2623.0716666396502</v>
       </c>
       <c r="D280">
         <v>248</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2013</v>
       </c>
@@ -26258,13 +26258,13 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>-5493.8042560249796</v>
+        <v>10632.8750812163</v>
       </c>
       <c r="D281">
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2013</v>
       </c>
@@ -26272,13 +26272,13 @@
         <v>2</v>
       </c>
       <c r="C282">
-        <v>-3066.0803254821399</v>
+        <v>4597.2343021250399</v>
       </c>
       <c r="D282">
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -26286,13 +26286,13 @@
         <v>3</v>
       </c>
       <c r="C283">
-        <v>-2699.2872150602002</v>
+        <v>7217.58616057577</v>
       </c>
       <c r="D283">
         <v>248</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -26300,13 +26300,13 @@
         <v>4</v>
       </c>
       <c r="C284">
-        <v>72.9303377361136</v>
+        <v>4328.9235200316498</v>
       </c>
       <c r="D284">
         <v>240</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -26314,13 +26314,13 @@
         <v>5</v>
       </c>
       <c r="C285">
-        <v>1788.1452219181499</v>
+        <v>-4023.7423220313499</v>
       </c>
       <c r="D285">
         <v>248</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -26328,13 +26328,13 @@
         <v>6</v>
       </c>
       <c r="C286">
-        <v>2498.05787308861</v>
+        <v>-293.85243396166697</v>
       </c>
       <c r="D286">
         <v>240</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -26342,13 +26342,13 @@
         <v>7</v>
       </c>
       <c r="C287">
-        <v>877.004292716382</v>
+        <v>-1025.3391242836401</v>
       </c>
       <c r="D287">
         <v>248</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -26356,13 +26356,13 @@
         <v>8</v>
       </c>
       <c r="C288">
-        <v>3505.3456456529202</v>
+        <v>-5076.8943511217803</v>
       </c>
       <c r="D288">
         <v>248</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -26370,13 +26370,13 @@
         <v>9</v>
       </c>
       <c r="C289">
-        <v>-711.74589282532304</v>
+        <v>-853.44856862290499</v>
       </c>
       <c r="D289">
         <v>240</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -26384,13 +26384,13 @@
         <v>10</v>
       </c>
       <c r="C290">
-        <v>-1788.52794021405</v>
+        <v>-1533.6201219770301</v>
       </c>
       <c r="D290">
         <v>248</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -26398,13 +26398,13 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>-3247.5297485158098</v>
+        <v>2449.0509674548498</v>
       </c>
       <c r="D291">
         <v>240</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -26412,13 +26412,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>-5380.2458455263604</v>
+        <v>3163.5256984695802</v>
       </c>
       <c r="D292">
         <v>248</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2014</v>
       </c>
@@ -26426,13 +26426,13 @@
         <v>1</v>
       </c>
       <c r="C293">
-        <v>-5048.1235029731797</v>
+        <v>2230.1503366542802</v>
       </c>
       <c r="D293">
         <v>248</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -26440,13 +26440,13 @@
         <v>2</v>
       </c>
       <c r="C294">
-        <v>-3845.5636666741698</v>
+        <v>3370.6310621265702</v>
       </c>
       <c r="D294">
         <v>224</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -26454,13 +26454,13 @@
         <v>3</v>
       </c>
       <c r="C295">
-        <v>-3573.6190557200098</v>
+        <v>6045.4823037509505</v>
       </c>
       <c r="D295">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2014</v>
       </c>
@@ -26468,13 +26468,13 @@
         <v>4</v>
       </c>
       <c r="C296">
-        <v>-84.768542639235704</v>
+        <v>6783.39344955052</v>
       </c>
       <c r="D296">
         <v>240</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2014</v>
       </c>
@@ -26482,13 +26482,13 @@
         <v>5</v>
       </c>
       <c r="C297">
-        <v>63.766306488233901</v>
+        <v>450.05457655881202</v>
       </c>
       <c r="D297">
         <v>248</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2014</v>
       </c>
@@ -26496,13 +26496,13 @@
         <v>6</v>
       </c>
       <c r="C298">
-        <v>3306.1027180588198</v>
+        <v>-1286.2669053483501</v>
       </c>
       <c r="D298">
         <v>240</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -26510,13 +26510,13 @@
         <v>7</v>
       </c>
       <c r="C299">
-        <v>3874.0479199605002</v>
+        <v>-11330.946613767201</v>
       </c>
       <c r="D299">
         <v>248</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -26524,13 +26524,13 @@
         <v>8</v>
       </c>
       <c r="C300">
-        <v>3088.1498359920502</v>
+        <v>-7481.9016014992403</v>
       </c>
       <c r="D300">
         <v>248</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2014</v>
       </c>
@@ -26538,13 +26538,13 @@
         <v>9</v>
       </c>
       <c r="C301">
-        <v>1124.7406743419799</v>
+        <v>-7399.15150534233</v>
       </c>
       <c r="D301">
         <v>240</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2014</v>
       </c>
@@ -26552,13 +26552,13 @@
         <v>10</v>
       </c>
       <c r="C302">
-        <v>-2732.0489226266</v>
+        <v>-2590.1477308650601</v>
       </c>
       <c r="D302">
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2014</v>
       </c>
@@ -26566,13 +26566,13 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>-4845.5969333223502</v>
+        <v>-333.73996873349398</v>
       </c>
       <c r="D303">
         <v>240</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2014</v>
       </c>
@@ -26580,145 +26580,181 @@
         <v>12</v>
       </c>
       <c r="C304">
-        <v>-4812.83508918595</v>
+        <v>-4908.85977492437</v>
       </c>
       <c r="D304">
         <v>248</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2015</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
+      <c r="C305">
+        <v>6646.8158550223498</v>
+      </c>
       <c r="D305">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2015</v>
       </c>
       <c r="B306">
         <v>2</v>
       </c>
+      <c r="C306">
+        <v>5063.6283283268103</v>
+      </c>
       <c r="D306">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2015</v>
       </c>
       <c r="B307">
         <v>3</v>
       </c>
+      <c r="C307">
+        <v>-3909.2234489500001</v>
+      </c>
       <c r="D307">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2015</v>
       </c>
       <c r="B308">
         <v>4</v>
       </c>
+      <c r="C308">
+        <v>309.40565519018298</v>
+      </c>
       <c r="D308">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2015</v>
       </c>
       <c r="B309">
         <v>5</v>
       </c>
+      <c r="C309">
+        <v>-6641.1502008445004</v>
+      </c>
       <c r="D309">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2015</v>
       </c>
       <c r="B310">
         <v>6</v>
       </c>
+      <c r="C310">
+        <v>1594.85438812085</v>
+      </c>
       <c r="D310">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2015</v>
       </c>
       <c r="B311">
         <v>7</v>
       </c>
+      <c r="C311">
+        <v>-6990.4466101021098</v>
+      </c>
       <c r="D311">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2015</v>
       </c>
       <c r="B312">
         <v>8</v>
       </c>
+      <c r="C312">
+        <v>-6608.1737544917396</v>
+      </c>
       <c r="D312">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2015</v>
       </c>
       <c r="B313">
         <v>9</v>
       </c>
+      <c r="C313">
+        <v>-7058.05636512192</v>
+      </c>
       <c r="D313">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2015</v>
       </c>
       <c r="B314">
         <v>10</v>
       </c>
+      <c r="C314">
+        <v>-1034.74931416915</v>
+      </c>
       <c r="D314">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2015</v>
       </c>
       <c r="B315">
         <v>11</v>
       </c>
+      <c r="C315">
+        <v>926.11992542082203</v>
+      </c>
       <c r="D315">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2015</v>
       </c>
       <c r="B316">
         <v>12</v>
       </c>
+      <c r="C316">
+        <v>1815.04738333512</v>
+      </c>
       <c r="D316">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2016</v>
       </c>
@@ -26729,7 +26765,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2016</v>
       </c>
@@ -26740,7 +26776,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2016</v>
       </c>
@@ -26751,7 +26787,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2016</v>
       </c>
@@ -26762,7 +26798,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2016</v>
       </c>
@@ -26773,7 +26809,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2016</v>
       </c>
@@ -26784,7 +26820,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2016</v>
       </c>
@@ -26795,7 +26831,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2016</v>
       </c>
@@ -26806,7 +26842,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2016</v>
       </c>
@@ -26817,7 +26853,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2016</v>
       </c>
@@ -26828,7 +26864,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2016</v>
       </c>
@@ -26839,7 +26875,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2016</v>
       </c>
@@ -26850,7 +26886,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2017</v>
       </c>
@@ -26861,7 +26897,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2017</v>
       </c>
@@ -26872,7 +26908,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2017</v>
       </c>
@@ -26883,7 +26919,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2017</v>
       </c>
@@ -26894,7 +26930,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2017</v>
       </c>
@@ -26905,7 +26941,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2017</v>
       </c>
@@ -26916,7 +26952,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2017</v>
       </c>
@@ -26927,7 +26963,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2017</v>
       </c>
@@ -26938,7 +26974,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2017</v>
       </c>
@@ -26949,7 +26985,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2017</v>
       </c>
@@ -26960,7 +26996,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2017</v>
       </c>
@@ -26971,7 +27007,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2017</v>
       </c>
@@ -26982,7 +27018,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2018</v>
       </c>
@@ -26993,7 +27029,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2018</v>
       </c>
@@ -27004,7 +27040,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2018</v>
       </c>
@@ -27015,7 +27051,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2018</v>
       </c>
@@ -27026,7 +27062,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2018</v>
       </c>
@@ -27037,7 +27073,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2018</v>
       </c>
@@ -27048,7 +27084,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2018</v>
       </c>
@@ -27059,7 +27095,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2018</v>
       </c>
@@ -27070,7 +27106,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2018</v>
       </c>
@@ -27081,7 +27117,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2018</v>
       </c>
@@ -27092,7 +27128,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2018</v>
       </c>
@@ -27103,7 +27139,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2018</v>
       </c>
@@ -27114,7 +27150,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2019</v>
       </c>
@@ -27125,7 +27161,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2019</v>
       </c>
@@ -27136,7 +27172,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2019</v>
       </c>
@@ -27147,7 +27183,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2019</v>
       </c>
@@ -27158,7 +27194,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2019</v>
       </c>
